--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -161,76 +161,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_branch.xlsx
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>71.78826692943711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>71.7882669294371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1063,22 +1063,22 @@
         <v>0.9526279648047555</v>
       </c>
       <c r="AL2">
-        <v>-4.05958441581623E-12</v>
+        <v>6.707476345968446E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999792</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999856</v>
       </c>
       <c r="AO2">
-        <v>-1.248218880058025E-11</v>
+        <v>5.04615138643219E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999591</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1194,22 +1194,22 @@
         <v>0.9526279648047555</v>
       </c>
       <c r="AL3">
-        <v>-1.465703315032486E-11</v>
+        <v>4.633830125290121E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999478</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO3">
-        <v>-1.248218880058025E-11</v>
+        <v>5.04615138643219E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999591</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1325,22 +1325,22 @@
         <v>0.9526279648047555</v>
       </c>
       <c r="AL4">
-        <v>-1.462737559401051E-11</v>
+        <v>3.63298682793939E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999481</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999518</v>
       </c>
       <c r="AO4">
-        <v>-1.248218880058025E-11</v>
+        <v>5.04615138643219E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999591</v>
       </c>
     </row>
   </sheetData>
@@ -1600,22 +1600,22 @@
         <v>0.9229411060011534</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293676</v>
+        <v>2.994714375351509E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646631</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159204</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943076</v>
+        <v>2.828174895952887E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279575</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1731,22 +1731,22 @@
         <v>0.9229411060011534</v>
       </c>
       <c r="AL3">
-        <v>14.82588342075279</v>
+        <v>2.318754581153746E-13</v>
       </c>
       <c r="AM3">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192861</v>
       </c>
       <c r="AN3">
-        <v>163.1035456589491</v>
+        <v>133.0893358579403</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943076</v>
+        <v>2.828174895952887E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279575</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1862,22 +1862,22 @@
         <v>0.9229411060011534</v>
       </c>
       <c r="AL4">
-        <v>14.8258834207528</v>
+        <v>2.48793496067574E-13</v>
       </c>
       <c r="AM4">
-        <v>-103.6531922689849</v>
+        <v>-144.8695745192861</v>
       </c>
       <c r="AN4">
-        <v>163.1035456589491</v>
+        <v>133.0893358579402</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943076</v>
+        <v>2.828174895952887E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279575</v>
       </c>
     </row>
   </sheetData>
@@ -2137,22 +2137,22 @@
         <v>0.9229411060011534</v>
       </c>
       <c r="AL2">
-        <v>17.92198046293676</v>
+        <v>2.994714375351509E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.5279586928746</v>
+        <v>-140.8543229646631</v>
       </c>
       <c r="AN2">
-        <v>158.1868465769574</v>
+        <v>122.4159013159204</v>
       </c>
       <c r="AO2">
-        <v>16.25665454943076</v>
+        <v>2.828174895952887E-13</v>
       </c>
       <c r="AP2">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ2">
-        <v>160.9543898286496</v>
+        <v>128.2389811279575</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2268,22 +2268,22 @@
         <v>0.9229411060011534</v>
       </c>
       <c r="AL3">
-        <v>14.82588342075279</v>
+        <v>2.318754581153746E-13</v>
       </c>
       <c r="AM3">
-        <v>-103.653192268985</v>
+        <v>-144.8695745192861</v>
       </c>
       <c r="AN3">
-        <v>163.1035456589491</v>
+        <v>133.0893358579403</v>
       </c>
       <c r="AO3">
-        <v>16.25665454943076</v>
+        <v>2.828174895952887E-13</v>
       </c>
       <c r="AP3">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ3">
-        <v>160.9543898286496</v>
+        <v>128.2389811279575</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2399,22 +2399,22 @@
         <v>0.9229411060011534</v>
       </c>
       <c r="AL4">
-        <v>14.8258834207528</v>
+        <v>2.48793496067574E-13</v>
       </c>
       <c r="AM4">
-        <v>-103.6531922689849</v>
+        <v>-144.8695745192861</v>
       </c>
       <c r="AN4">
-        <v>163.1035456589491</v>
+        <v>133.0893358579402</v>
       </c>
       <c r="AO4">
-        <v>16.25665454943076</v>
+        <v>2.828174895952887E-13</v>
       </c>
       <c r="AP4">
-        <v>-104.9129785376843</v>
+        <v>-142.8672784204022</v>
       </c>
       <c r="AQ4">
-        <v>160.9543898286496</v>
+        <v>128.2389811279575</v>
       </c>
     </row>
   </sheetData>
@@ -2674,22 +2674,22 @@
         <v>0.8660254037883341</v>
       </c>
       <c r="AL2">
-        <v>3.075049833612323E-11</v>
+        <v>9.873154648399064E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999024</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.9999999998945</v>
       </c>
       <c r="AO2">
-        <v>1.723269310637572E-10</v>
+        <v>6.173841330090846E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.999999999477</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2805,22 +2805,22 @@
         <v>0.8660254037883341</v>
       </c>
       <c r="AL3">
-        <v>1.933442898668698E-10</v>
+        <v>5.096254762259558E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994137</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997987</v>
+        <v>179.9999999994097</v>
       </c>
       <c r="AO3">
-        <v>1.723269310637572E-10</v>
+        <v>6.173841330090846E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.999999999477</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2936,22 +2936,22 @@
         <v>0.8660254037883341</v>
       </c>
       <c r="AL4">
-        <v>1.933524369366438E-10</v>
+        <v>3.946238936291747E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994134</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO4">
-        <v>1.723269310637572E-10</v>
+        <v>6.173841330090846E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.999999999477</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
   </sheetData>
@@ -3211,22 +3211,22 @@
         <v>0.8660254037883341</v>
       </c>
       <c r="AL2">
-        <v>3.075049833612323E-11</v>
+        <v>9.873154648399064E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999024</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999606</v>
+        <v>179.9999999998945</v>
       </c>
       <c r="AO2">
-        <v>1.723269310637572E-10</v>
+        <v>6.173841330090846E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.999999999477</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3342,22 +3342,22 @@
         <v>0.8660254037883341</v>
       </c>
       <c r="AL3">
-        <v>1.933442898668698E-10</v>
+        <v>5.096254762259558E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999994137</v>
       </c>
       <c r="AN3">
-        <v>179.9999999997987</v>
+        <v>179.9999999994097</v>
       </c>
       <c r="AO3">
-        <v>1.723269310637572E-10</v>
+        <v>6.173841330090846E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.999999999477</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3473,22 +3473,22 @@
         <v>0.8660254037883341</v>
       </c>
       <c r="AL4">
-        <v>1.933524369366438E-10</v>
+        <v>3.946238936291747E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999994134</v>
       </c>
       <c r="AN4">
-        <v>179.9999999997987</v>
+        <v>179.99999999941</v>
       </c>
       <c r="AO4">
-        <v>1.723269310637572E-10</v>
+        <v>6.173841330090846E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.999999999477</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999998195</v>
+        <v>179.9999999994718</v>
       </c>
     </row>
   </sheetData>
@@ -3748,22 +3748,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536515</v>
+        <v>3.341200906397577E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758097</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546081</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155595</v>
+        <v>2.740834703560684E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3879,22 +3879,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL3">
-        <v>14.31307774380567</v>
+        <v>2.171929239489831E-13</v>
       </c>
       <c r="AM3">
-        <v>-97.89113682127689</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN3">
-        <v>164.6472678684481</v>
+        <v>138.2820504968732</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155595</v>
+        <v>2.740834703560684E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4010,22 +4010,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL4">
-        <v>14.31307774380567</v>
+        <v>2.027996594242674E-13</v>
       </c>
       <c r="AM4">
-        <v>-97.89113682127687</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN4">
-        <v>164.6472678684481</v>
+        <v>138.2820504968732</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155595</v>
+        <v>2.740834703560684E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
   </sheetData>
@@ -4285,22 +4285,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL2">
-        <v>17.57011779536515</v>
+        <v>3.341200906397577E-13</v>
       </c>
       <c r="AM2">
-        <v>-106.9885815758097</v>
+        <v>-141.4823925534191</v>
       </c>
       <c r="AN2">
-        <v>158.5647675412735</v>
+        <v>122.8363393546081</v>
       </c>
       <c r="AO2">
-        <v>15.93288697155595</v>
+        <v>2.740834703560684E-13</v>
       </c>
       <c r="AP2">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ2">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4416,22 +4416,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL3">
-        <v>14.31307774380567</v>
+        <v>2.171929239489831E-13</v>
       </c>
       <c r="AM3">
-        <v>-97.89113682127689</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN3">
-        <v>164.6472678684481</v>
+        <v>138.2820504968732</v>
       </c>
       <c r="AO3">
-        <v>15.93288697155595</v>
+        <v>2.740834703560684E-13</v>
       </c>
       <c r="AP3">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ3">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4547,22 +4547,22 @@
         <v>0.8529812840863313</v>
       </c>
       <c r="AL4">
-        <v>14.31307774380567</v>
+        <v>2.027996594242674E-13</v>
       </c>
       <c r="AM4">
-        <v>-97.89113682127687</v>
+        <v>-144.4405405825464</v>
       </c>
       <c r="AN4">
-        <v>164.6472678684481</v>
+        <v>138.2820504968732</v>
       </c>
       <c r="AO4">
-        <v>15.93288697155595</v>
+        <v>2.740834703560684E-13</v>
       </c>
       <c r="AP4">
-        <v>-101.7238138495564</v>
+        <v>-142.5584264979141</v>
       </c>
       <c r="AQ4">
-        <v>162.0554462537874</v>
+        <v>131.69891753725</v>
       </c>
     </row>
   </sheetData>
@@ -4822,22 +4822,22 @@
         <v>0.9271486225001982</v>
       </c>
       <c r="AL2">
-        <v>0.05810097842053325</v>
+        <v>0.05810097840181528</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9418990215748</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.2095971264322447</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.7904028735454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4953,22 +4953,22 @@
         <v>0.9271486225001982</v>
       </c>
       <c r="AL3">
-        <v>0.3192929610913485</v>
+        <v>0.3192929610594322</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.6807070388815</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2095971264322447</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.7904028735454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5084,22 +5084,22 @@
         <v>0.9271486225001982</v>
       </c>
       <c r="AL4">
-        <v>0.3192929610913932</v>
+        <v>0.3192929610594648</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.6807070388816</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2095971264322447</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.7904028735454</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5359,22 +5359,22 @@
         <v>0.9271486225001982</v>
       </c>
       <c r="AL2">
-        <v>0.05810097842053325</v>
+        <v>0.05810097840181528</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9418990215748</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.2095971264322447</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.7904028735454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5490,22 +5490,22 @@
         <v>0.9271486225001982</v>
       </c>
       <c r="AL3">
-        <v>0.3192929610913485</v>
+        <v>0.3192929610594322</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.6807070388815</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2095971264322447</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.7904028735454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5621,22 +5621,22 @@
         <v>0.9271486225001982</v>
       </c>
       <c r="AL4">
-        <v>0.3192929610913932</v>
+        <v>0.3192929610594648</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.6807070388816</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2095971264322447</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.7904028735454</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5896,22 +5896,22 @@
         <v>0.9499542621949204</v>
       </c>
       <c r="AL2">
-        <v>22.9541761523928</v>
+        <v>2.093795107445995</v>
       </c>
       <c r="AM2">
-        <v>-100.051016339622</v>
+        <v>-106.8583055569838</v>
       </c>
       <c r="AN2">
-        <v>153.34643795268</v>
+        <v>86.00112104239247</v>
       </c>
       <c r="AO2">
-        <v>21.66776978529776</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390015473</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ2">
-        <v>155.4333530898804</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6027,22 +6027,22 @@
         <v>0.9499542621949204</v>
       </c>
       <c r="AL3">
-        <v>20.50747906418568</v>
+        <v>1.830495021156142</v>
       </c>
       <c r="AM3">
-        <v>-99.08615255180601</v>
+        <v>-106.7445086067049</v>
       </c>
       <c r="AN3">
-        <v>157.2132384620389</v>
+        <v>87.83273417355092</v>
       </c>
       <c r="AO3">
-        <v>21.66776978529776</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390015473</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ3">
-        <v>155.4333530898804</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6158,22 +6158,22 @@
         <v>0.9499542621949204</v>
       </c>
       <c r="AL4">
-        <v>20.50747906418569</v>
+        <v>1.830495021156094</v>
       </c>
       <c r="AM4">
-        <v>-99.08615255180599</v>
+        <v>-106.7445086067047</v>
       </c>
       <c r="AN4">
-        <v>157.2132384620389</v>
+        <v>87.83273417355086</v>
       </c>
       <c r="AO4">
-        <v>21.66776978529776</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390015473</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ4">
-        <v>155.4333530898804</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
   </sheetData>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.32801736352474</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6342,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>71.78826692943711</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>71.7882669294371</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.77984578051343</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6658,22 +6658,22 @@
         <v>0.9499542621949204</v>
       </c>
       <c r="AL2">
-        <v>22.9541761523928</v>
+        <v>2.093795107445995</v>
       </c>
       <c r="AM2">
-        <v>-100.051016339622</v>
+        <v>-106.8583055569838</v>
       </c>
       <c r="AN2">
-        <v>153.34643795268</v>
+        <v>86.00112104239247</v>
       </c>
       <c r="AO2">
-        <v>21.66776978529776</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP2">
-        <v>-99.52967390015473</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ2">
-        <v>155.4333530898804</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6789,22 +6789,22 @@
         <v>0.9499542621949204</v>
       </c>
       <c r="AL3">
-        <v>20.50747906418568</v>
+        <v>1.830495021156142</v>
       </c>
       <c r="AM3">
-        <v>-99.08615255180601</v>
+        <v>-106.7445086067049</v>
       </c>
       <c r="AN3">
-        <v>157.2132384620389</v>
+        <v>87.83273417355092</v>
       </c>
       <c r="AO3">
-        <v>21.66776978529776</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP3">
-        <v>-99.52967390015473</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ3">
-        <v>155.4333530898804</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6920,22 +6920,22 @@
         <v>0.9499542621949204</v>
       </c>
       <c r="AL4">
-        <v>20.50747906418569</v>
+        <v>1.830495021156094</v>
       </c>
       <c r="AM4">
-        <v>-99.08615255180599</v>
+        <v>-106.7445086067047</v>
       </c>
       <c r="AN4">
-        <v>157.2132384620389</v>
+        <v>87.83273417355086</v>
       </c>
       <c r="AO4">
-        <v>21.66776978529776</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP4">
-        <v>-99.52967390015473</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ4">
-        <v>155.4333530898804</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
   </sheetData>
@@ -7195,22 +7195,22 @@
         <v>0.8415023556280455</v>
       </c>
       <c r="AL2">
-        <v>0.06185191726095315</v>
+        <v>0.06185191722406379</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9381480828084</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.3405644958599032</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.6594355045004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7326,22 +7326,22 @@
         <v>0.8415023556280455</v>
       </c>
       <c r="AL3">
-        <v>0.5226334985301927</v>
+        <v>0.5226334983204279</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.4773665018747</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.3405644958599032</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.6594355045004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7457,22 +7457,22 @@
         <v>0.8415023556280455</v>
       </c>
       <c r="AL4">
-        <v>0.5226334985302036</v>
+        <v>0.5226334983205004</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.4773665018747</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.3405644958599032</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.6594355045004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7732,22 +7732,22 @@
         <v>0.8415023556280455</v>
       </c>
       <c r="AL2">
-        <v>0.06185191726095315</v>
+        <v>0.06185191722406379</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-179.9381480828084</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.3405644958599032</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-179.6594355045004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7863,22 +7863,22 @@
         <v>0.8415023556280455</v>
       </c>
       <c r="AL3">
-        <v>0.5226334985301927</v>
+        <v>0.5226334983204279</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-179.4773665018747</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.3405644958599032</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-179.6594355045004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7994,22 +7994,22 @@
         <v>0.8415023556280455</v>
       </c>
       <c r="AL4">
-        <v>0.5226334985302036</v>
+        <v>0.5226334983205004</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-179.4773665018747</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.3405644958599032</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>-179.6594355045004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8269,22 +8269,22 @@
         <v>0.8695631603227794</v>
       </c>
       <c r="AL2">
-        <v>22.69524639203599</v>
+        <v>2.089868393738011</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786927</v>
+        <v>-107.2957348901595</v>
       </c>
       <c r="AN2">
-        <v>153.5353035652773</v>
+        <v>85.72422595375333</v>
       </c>
       <c r="AO2">
-        <v>21.44662537309587</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507041895</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ2">
-        <v>156.5800438134807</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8400,22 +8400,22 @@
         <v>0.8695631603227794</v>
       </c>
       <c r="AL3">
-        <v>20.20478536459425</v>
+        <v>1.671451765044131</v>
       </c>
       <c r="AM3">
-        <v>-95.39765209811364</v>
+        <v>-103.3712639564099</v>
       </c>
       <c r="AN3">
-        <v>159.0090121585893</v>
+        <v>91.8732144411657</v>
       </c>
       <c r="AO3">
-        <v>21.44662537309587</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507041895</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ3">
-        <v>156.5800438134807</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8531,22 +8531,22 @@
         <v>0.8695631603227794</v>
       </c>
       <c r="AL4">
-        <v>20.20478536459426</v>
+        <v>1.671451765044135</v>
       </c>
       <c r="AM4">
-        <v>-95.39765209811362</v>
+        <v>-103.3712639564098</v>
       </c>
       <c r="AN4">
-        <v>159.0090121585893</v>
+        <v>91.87321444116566</v>
       </c>
       <c r="AO4">
-        <v>21.44662537309587</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507041895</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ4">
-        <v>156.5800438134807</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
   </sheetData>
@@ -8806,22 +8806,22 @@
         <v>0.8695631603227794</v>
       </c>
       <c r="AL2">
-        <v>22.69524639203599</v>
+        <v>2.089868393738011</v>
       </c>
       <c r="AM2">
-        <v>-100.4045966786927</v>
+        <v>-107.2957348901595</v>
       </c>
       <c r="AN2">
-        <v>153.5353035652773</v>
+        <v>85.72422595375333</v>
       </c>
       <c r="AO2">
-        <v>21.44662537309587</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP2">
-        <v>-97.63434507041895</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ2">
-        <v>156.5800438134807</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8937,22 +8937,22 @@
         <v>0.8695631603227794</v>
       </c>
       <c r="AL3">
-        <v>20.20478536459425</v>
+        <v>1.671451765044131</v>
       </c>
       <c r="AM3">
-        <v>-95.39765209811364</v>
+        <v>-103.3712639564099</v>
       </c>
       <c r="AN3">
-        <v>159.0090121585893</v>
+        <v>91.8732144411657</v>
       </c>
       <c r="AO3">
-        <v>21.44662537309587</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP3">
-        <v>-97.63434507041895</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ3">
-        <v>156.5800438134807</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9068,22 +9068,22 @@
         <v>0.8695631603227794</v>
       </c>
       <c r="AL4">
-        <v>20.20478536459426</v>
+        <v>1.671451765044135</v>
       </c>
       <c r="AM4">
-        <v>-95.39765209811362</v>
+        <v>-103.3712639564098</v>
       </c>
       <c r="AN4">
-        <v>159.0090121585893</v>
+        <v>91.87321444116566</v>
       </c>
       <c r="AO4">
-        <v>21.44662537309587</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP4">
-        <v>-97.63434507041895</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ4">
-        <v>156.5800438134807</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
   </sheetData>
@@ -9343,22 +9343,22 @@
         <v>1.013045203623771</v>
       </c>
       <c r="AL2">
-        <v>32.32277567180757</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999773</v>
+        <v>-147.6772243282247</v>
       </c>
       <c r="AN2">
-        <v>147.9898092982805</v>
+        <v>147.9898092982228</v>
       </c>
       <c r="AO2">
-        <v>33.2032868447533</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999764</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ2">
-        <v>147.8970114821342</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9474,22 +9474,22 @@
         <v>1.013045203623771</v>
       </c>
       <c r="AL3">
-        <v>33.95614305147019</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999756</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN3">
-        <v>147.6794363569783</v>
+        <v>147.6794363569257</v>
       </c>
       <c r="AO3">
-        <v>33.2032868447533</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999764</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ3">
-        <v>147.8970114821342</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9605,22 +9605,22 @@
         <v>1.013045203623771</v>
       </c>
       <c r="AL4">
-        <v>33.95614305147019</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999757</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN4">
-        <v>147.6794363569783</v>
+        <v>147.6794363569256</v>
       </c>
       <c r="AO4">
-        <v>33.2032868447533</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999764</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ4">
-        <v>147.8970114821342</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
   </sheetData>
@@ -9880,22 +9880,22 @@
         <v>1.013045203623771</v>
       </c>
       <c r="AL2">
-        <v>32.32277567180757</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999773</v>
+        <v>-147.6772243282247</v>
       </c>
       <c r="AN2">
-        <v>147.9898092982805</v>
+        <v>147.9898092982228</v>
       </c>
       <c r="AO2">
-        <v>33.2032868447533</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999764</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ2">
-        <v>147.8970114821342</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10011,22 +10011,22 @@
         <v>1.013045203623771</v>
       </c>
       <c r="AL3">
-        <v>33.95614305147019</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999756</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN3">
-        <v>147.6794363569783</v>
+        <v>147.6794363569257</v>
       </c>
       <c r="AO3">
-        <v>33.2032868447533</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999764</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ3">
-        <v>147.8970114821342</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10142,22 +10142,22 @@
         <v>1.013045203623771</v>
       </c>
       <c r="AL4">
-        <v>33.95614305147019</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999757</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN4">
-        <v>147.6794363569783</v>
+        <v>147.6794363569256</v>
       </c>
       <c r="AO4">
-        <v>33.2032868447533</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999764</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ4">
-        <v>147.8970114821342</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
   </sheetData>
@@ -10417,22 +10417,22 @@
         <v>1.039238165307004</v>
       </c>
       <c r="AL2">
-        <v>31.16732341457357</v>
+        <v>-32.94617420944358</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999744</v>
+        <v>-139.0401364232156</v>
       </c>
       <c r="AN2">
-        <v>147.9169914318448</v>
+        <v>148.1004369773258</v>
       </c>
       <c r="AO2">
-        <v>31.83778581150034</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999737</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ2">
-        <v>147.7825912654873</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10548,22 +10548,22 @@
         <v>1.039238165307004</v>
       </c>
       <c r="AL3">
-        <v>32.42077233922407</v>
+        <v>-26.82362012912552</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999729</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN3">
-        <v>147.5842645502669</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO3">
-        <v>31.83778581150034</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999737</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ3">
-        <v>147.7825912654873</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10679,22 +10679,22 @@
         <v>1.039238165307004</v>
       </c>
       <c r="AL4">
-        <v>32.42077233922407</v>
+        <v>-26.82362012912548</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999729</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN4">
-        <v>147.5842645502669</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO4">
-        <v>31.83778581150034</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999737</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ4">
-        <v>147.7825912654873</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
   </sheetData>
@@ -10954,22 +10954,22 @@
         <v>1.039238165307004</v>
       </c>
       <c r="AL2">
-        <v>31.16732341457357</v>
+        <v>-32.94617420944358</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999744</v>
+        <v>-139.0401364232156</v>
       </c>
       <c r="AN2">
-        <v>147.9169914318448</v>
+        <v>148.1004369773258</v>
       </c>
       <c r="AO2">
-        <v>31.83778581150034</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999737</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ2">
-        <v>147.7825912654873</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11085,22 +11085,22 @@
         <v>1.039238165307004</v>
       </c>
       <c r="AL3">
-        <v>32.42077233922407</v>
+        <v>-26.82362012912552</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999729</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN3">
-        <v>147.5842645502669</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO3">
-        <v>31.83778581150034</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999737</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ3">
-        <v>147.7825912654873</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11216,22 +11216,22 @@
         <v>1.039238165307004</v>
       </c>
       <c r="AL4">
-        <v>32.42077233922407</v>
+        <v>-26.82362012912548</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999729</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN4">
-        <v>147.5842645502669</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO4">
-        <v>31.83778581150034</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999737</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ4">
-        <v>147.7825912654873</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
   </sheetData>
@@ -11491,22 +11491,22 @@
         <v>0.9134414119943058</v>
       </c>
       <c r="AL2">
-        <v>32.43040058768669</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999774</v>
+        <v>-147.5695994122703</v>
       </c>
       <c r="AN2">
-        <v>147.9007199697427</v>
+        <v>147.900719969754</v>
       </c>
       <c r="AO2">
-        <v>33.69670351315943</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999764</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ2">
-        <v>148.0769760729986</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11622,22 +11622,22 @@
         <v>0.9134414119943058</v>
       </c>
       <c r="AL3">
-        <v>34.72451398956279</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999751</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN3">
-        <v>147.9167939911928</v>
+        <v>147.9167939912031</v>
       </c>
       <c r="AO3">
-        <v>33.69670351315943</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999764</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ3">
-        <v>148.0769760729986</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11753,22 +11753,22 @@
         <v>0.9134414119943058</v>
       </c>
       <c r="AL4">
-        <v>34.72451398956279</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999751</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN4">
-        <v>147.9167939911928</v>
+        <v>147.9167939912032</v>
       </c>
       <c r="AO4">
-        <v>33.69670351315943</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999764</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ4">
-        <v>148.0769760729986</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
   </sheetData>
@@ -11884,10 +11884,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P2">
-        <v>45.00000000014263</v>
+        <v>-10.05101633965329</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11937,10 +11937,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P3">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827228</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11990,10 +11990,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P4">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827231</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
   </sheetData>
@@ -12253,22 +12253,22 @@
         <v>0.9134414119943058</v>
       </c>
       <c r="AL2">
-        <v>32.43040058768669</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999774</v>
+        <v>-147.5695994122703</v>
       </c>
       <c r="AN2">
-        <v>147.9007199697427</v>
+        <v>147.900719969754</v>
       </c>
       <c r="AO2">
-        <v>33.69670351315943</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999764</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ2">
-        <v>148.0769760729986</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12384,22 +12384,22 @@
         <v>0.9134414119943058</v>
       </c>
       <c r="AL3">
-        <v>34.72451398956279</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999751</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN3">
-        <v>147.9167939911928</v>
+        <v>147.9167939912031</v>
       </c>
       <c r="AO3">
-        <v>33.69670351315943</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999764</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ3">
-        <v>148.0769760729986</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12515,22 +12515,22 @@
         <v>0.9134414119943058</v>
       </c>
       <c r="AL4">
-        <v>34.72451398956279</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999751</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN4">
-        <v>147.9167939911928</v>
+        <v>147.9167939912032</v>
       </c>
       <c r="AO4">
-        <v>33.69670351315943</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999764</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ4">
-        <v>148.0769760729986</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
   </sheetData>
@@ -12790,22 +12790,22 @@
         <v>0.9383153127336428</v>
       </c>
       <c r="AL2">
-        <v>31.22539301801772</v>
+        <v>-32.96337052117936</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999746</v>
+        <v>-138.986863103398</v>
       </c>
       <c r="AN2">
-        <v>147.825720560688</v>
+        <v>147.9931760528525</v>
       </c>
       <c r="AO2">
-        <v>32.2619521624999</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999736</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ2">
-        <v>147.9447511468697</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12921,22 +12921,22 @@
         <v>0.9383153127336428</v>
       </c>
       <c r="AL3">
-        <v>33.1213710674494</v>
+        <v>-20.89818686211935</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999721</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN3">
-        <v>147.8611386207801</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO3">
-        <v>32.2619521624999</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999736</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ3">
-        <v>147.9447511468697</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13052,22 +13052,22 @@
         <v>0.9383153127336428</v>
       </c>
       <c r="AL4">
-        <v>33.1213710674494</v>
+        <v>-20.89818686211941</v>
       </c>
       <c r="AM4">
-        <v>-89.9999999999972</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN4">
-        <v>147.8611386207801</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO4">
-        <v>32.2619521624999</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999736</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ4">
-        <v>147.9447511468697</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
   </sheetData>
@@ -13327,22 +13327,22 @@
         <v>0.9383153127336428</v>
       </c>
       <c r="AL2">
-        <v>31.22539301801772</v>
+        <v>-32.96337052117936</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999746</v>
+        <v>-138.986863103398</v>
       </c>
       <c r="AN2">
-        <v>147.825720560688</v>
+        <v>147.9931760528525</v>
       </c>
       <c r="AO2">
-        <v>32.2619521624999</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999736</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ2">
-        <v>147.9447511468697</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13458,22 +13458,22 @@
         <v>0.9383153127336428</v>
       </c>
       <c r="AL3">
-        <v>33.1213710674494</v>
+        <v>-20.89818686211935</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999721</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN3">
-        <v>147.8611386207801</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO3">
-        <v>32.2619521624999</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999736</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ3">
-        <v>147.9447511468697</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13589,22 +13589,22 @@
         <v>0.9383153127336428</v>
       </c>
       <c r="AL4">
-        <v>33.1213710674494</v>
+        <v>-20.89818686211941</v>
       </c>
       <c r="AM4">
-        <v>-89.9999999999972</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN4">
-        <v>147.8611386207801</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO4">
-        <v>32.2619521624999</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999736</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ4">
-        <v>147.9447511468697</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
   </sheetData>
@@ -13720,10 +13720,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P2">
-        <v>45.00000000014263</v>
+        <v>-10.05101633965329</v>
       </c>
       <c r="Q2">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13773,10 +13773,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P3">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827228</v>
       </c>
       <c r="Q3">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13826,10 +13826,10 @@
         <v>0.8020156209364422</v>
       </c>
       <c r="P4">
-        <v>45.00000000014496</v>
+        <v>-9.086152551827231</v>
       </c>
       <c r="Q4">
-        <v>45.00000000014392</v>
+        <v>-9.529673900180386</v>
       </c>
     </row>
   </sheetData>
@@ -13945,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749287</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13998,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14051,10 +14051,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14170,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>87.26693929749287</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14276,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>59.5744304512782</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69.6723164331699</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14395,10 +14395,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P2">
-        <v>44.99999999986318</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14448,10 +14448,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P3">
-        <v>44.99999999987254</v>
+        <v>-5.397652098192608</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14501,10 +14501,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P4">
-        <v>44.99999999987253</v>
+        <v>-5.397652098192621</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
   </sheetData>
@@ -14620,10 +14620,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P2">
-        <v>44.99999999986318</v>
+        <v>-10.4045966787725</v>
       </c>
       <c r="Q2">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14673,10 +14673,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P3">
-        <v>44.99999999987254</v>
+        <v>-5.397652098192608</v>
       </c>
       <c r="Q3">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14726,10 +14726,10 @@
         <v>0.7019303077896073</v>
       </c>
       <c r="P4">
-        <v>44.99999999987253</v>
+        <v>-5.397652098192621</v>
       </c>
       <c r="Q4">
-        <v>44.99999999986817</v>
+        <v>-7.634345070499261</v>
       </c>
     </row>
   </sheetData>
@@ -14989,22 +14989,22 @@
         <v>0.9526279648047555</v>
       </c>
       <c r="AL2">
-        <v>-4.05958441581623E-12</v>
+        <v>6.707476345968446E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999792</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999856</v>
       </c>
       <c r="AO2">
-        <v>-1.248218880058025E-11</v>
+        <v>5.04615138643219E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999591</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15120,22 +15120,22 @@
         <v>0.9526279648047555</v>
       </c>
       <c r="AL3">
-        <v>-1.465703315032486E-11</v>
+        <v>4.633830125290121E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999478</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999519</v>
       </c>
       <c r="AO3">
-        <v>-1.248218880058025E-11</v>
+        <v>5.04615138643219E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999591</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15251,22 +15251,22 @@
         <v>0.9526279648047555</v>
       </c>
       <c r="AL4">
-        <v>-1.462737559401051E-11</v>
+        <v>3.63298682793939E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999481</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999518</v>
       </c>
       <c r="AO4">
-        <v>-1.248218880058025E-11</v>
+        <v>5.04615138643219E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999542</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999999812</v>
+        <v>-179.9999999999591</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_branch.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -4714,130 +4714,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.008000161111649157</v>
+        <v>0.01501633262181131</v>
       </c>
       <c r="C2">
-        <v>0.00800016201767729</v>
+        <v>0.01501633262734331</v>
       </c>
       <c r="D2">
-        <v>0.008000160202689495</v>
+        <v>0.01501633262734947</v>
       </c>
       <c r="E2">
-        <v>0.005300048348948055</v>
+        <v>0.6517744719190867</v>
       </c>
       <c r="F2">
-        <v>3.689427380142138</v>
+        <v>0.009812074698393385</v>
       </c>
       <c r="G2">
-        <v>3.737328754729523</v>
+        <v>0.00981207469839598</v>
       </c>
       <c r="H2">
-        <v>0.09237790342742033</v>
+        <v>0.1733936736288743</v>
       </c>
       <c r="I2">
-        <v>0.09237791388933206</v>
+        <v>0.1733936736927524</v>
       </c>
       <c r="J2">
-        <v>0.09237789293165823</v>
+        <v>0.1733936736928235</v>
       </c>
       <c r="K2">
-        <v>0.06119968681966383</v>
+        <v>7.526043336268217</v>
       </c>
       <c r="L2">
-        <v>42.60183782161278</v>
+        <v>0.1133000793685228</v>
       </c>
       <c r="M2">
-        <v>43.15495525186438</v>
+        <v>0.1133000793685527</v>
       </c>
       <c r="N2">
-        <v>0.0005324271185144976</v>
+        <v>-3.114713019502252E-13</v>
       </c>
       <c r="O2">
-        <v>-4.841173360033667E-14</v>
+        <v>0.1661175663789741</v>
       </c>
       <c r="P2">
-        <v>-4.219198246329297E-14</v>
+        <v>-0.1642417494074184</v>
       </c>
       <c r="Q2">
-        <v>-3.894411801779471E-05</v>
+        <v>1.235443327595757E-11</v>
       </c>
       <c r="R2">
-        <v>7.802906001702377E-11</v>
+        <v>-0.1079902317410063</v>
       </c>
       <c r="S2">
-        <v>8.254751354086077E-11</v>
+        <v>0.1078567555206978</v>
       </c>
       <c r="T2">
-        <v>-0.1490935465903121</v>
+        <v>9.093607781311216E-14</v>
       </c>
       <c r="U2">
-        <v>-8.297209961354363E-14</v>
+        <v>-0.2626778877456835</v>
       </c>
       <c r="V2">
-        <v>7.968410399878093E-14</v>
+        <v>-0.2626000242294005</v>
       </c>
       <c r="W2">
-        <v>0.09827864280208969</v>
+        <v>-4.835982395678464E-12</v>
       </c>
       <c r="X2">
-        <v>-4.80190373639968E-11</v>
+        <v>0.1698382015119615</v>
       </c>
       <c r="Y2">
-        <v>3.359259244447917E-11</v>
+        <v>0.1669998753507907</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-84.79381555971922</v>
       </c>
       <c r="AA2">
-        <v>-170.4493210212929</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>14.85695434131824</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-89.81310702801451</v>
+        <v>95.13921755886028</v>
       </c>
       <c r="AD2">
-        <v>9.469467404973022</v>
+        <v>90.75337969533705</v>
       </c>
       <c r="AE2">
-        <v>-165.0644411599965</v>
+        <v>90.75337969539673</v>
       </c>
       <c r="AF2">
-        <v>0.9318218419616013</v>
+        <v>1.034862894271765</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.100000023842451</v>
       </c>
       <c r="AH2">
-        <v>0.9318218419626179</v>
+        <v>1.031318204562458</v>
       </c>
       <c r="AI2">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="AK2">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="AL2">
-        <v>0.05810097840181528</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-147.6772243282247</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>147.9898092982228</v>
       </c>
       <c r="AO2">
-        <v>0.2095971264030684</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4845,130 +4845,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.608492552139156</v>
       </c>
       <c r="C3">
-        <v>2.971863590859358</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.027772914398423</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002650024173803555</v>
+        <v>0.004906037340876952</v>
       </c>
       <c r="F3">
-        <v>0.002650024474393969</v>
+        <v>0.004906037347953541</v>
       </c>
       <c r="G3">
-        <v>0.002650023869395167</v>
+        <v>0.004906037347954367</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.026266775548482</v>
       </c>
       <c r="I3">
-        <v>34.31612488354996</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>34.96171014345975</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03059984340208997</v>
+        <v>0.05665003958819329</v>
       </c>
       <c r="L3">
-        <v>0.03059984687300909</v>
+        <v>0.0566500396699067</v>
       </c>
       <c r="M3">
-        <v>0.03059983988708468</v>
+        <v>0.05665003966991623</v>
       </c>
       <c r="N3">
-        <v>-2.916506449088297E-09</v>
+        <v>1.046053724022982E-11</v>
       </c>
       <c r="O3">
-        <v>6.740758445461162E-11</v>
+        <v>-4.967817767105375E-09</v>
       </c>
       <c r="P3">
-        <v>7.836405582327982E-11</v>
+        <v>-4.760297036969992E-09</v>
       </c>
       <c r="Q3">
-        <v>1.947056967253694E-05</v>
+        <v>-9.550569284837423E-14</v>
       </c>
       <c r="R3">
-        <v>-2.499874296848956E-14</v>
+        <v>0.0539951132830508</v>
       </c>
       <c r="S3">
-        <v>-3.793566978958493E-14</v>
+        <v>-0.05392838027735619</v>
       </c>
       <c r="T3">
-        <v>3.589605116666573E-11</v>
+        <v>-5.000399275945883E-12</v>
       </c>
       <c r="U3">
-        <v>-4.929529953771846E-11</v>
+        <v>-3.114413619497955E-09</v>
       </c>
       <c r="V3">
-        <v>2.396896341471977E-11</v>
+        <v>3.234218701084548E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04913932138920244</v>
+        <v>2.918330382956589E-14</v>
       </c>
       <c r="X3">
-        <v>-6.087591410594916E-14</v>
+        <v>-0.08491910237097378</v>
       </c>
       <c r="Y3">
-        <v>5.05394197313803E-14</v>
+        <v>-0.08349993601979268</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-84.79381555971922</v>
       </c>
       <c r="AA3">
-        <v>-170.4493210212929</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.85695434131824</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>90.18689470851835</v>
+        <v>-89.24661917395117</v>
       </c>
       <c r="AD3">
-        <v>90.18689438428864</v>
+        <v>-89.24661856810663</v>
       </c>
       <c r="AE3">
-        <v>90.18689442687683</v>
+        <v>-89.24661856810198</v>
       </c>
       <c r="AF3">
-        <v>0.9224887204894726</v>
+        <v>1.015377306145668</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="AH3">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="AI3">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="AK3">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="AL3">
-        <v>0.3192929610594322</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>147.6794363569257</v>
       </c>
       <c r="AO3">
-        <v>0.2095971264030684</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4976,130 +4976,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6084925521391535</v>
       </c>
       <c r="C4">
-        <v>2.971863590859354</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.027772914398418</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002650024173803555</v>
+        <v>0.004906037340876941</v>
       </c>
       <c r="F4">
-        <v>0.002650024474392338</v>
+        <v>0.004906037347956035</v>
       </c>
       <c r="G4">
-        <v>0.002650023869395167</v>
+        <v>0.004906037347954367</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.026266775548454</v>
       </c>
       <c r="I4">
-        <v>34.31612488354992</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>34.96171014345968</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03059984340208997</v>
+        <v>0.05665003958819315</v>
       </c>
       <c r="L4">
-        <v>0.03059984687299026</v>
+        <v>0.05665003966993549</v>
       </c>
       <c r="M4">
-        <v>0.03059983988708468</v>
+        <v>0.05665003966991623</v>
       </c>
       <c r="N4">
-        <v>-2.916487612016462E-09</v>
+        <v>1.045928982926053E-11</v>
       </c>
       <c r="O4">
-        <v>6.742301415480885E-11</v>
+        <v>-4.967811135967957E-09</v>
       </c>
       <c r="P4">
-        <v>7.831995536333834E-11</v>
+        <v>-4.760291960470648E-09</v>
       </c>
       <c r="Q4">
-        <v>1.947056967253694E-05</v>
+        <v>-9.550569284837889E-14</v>
       </c>
       <c r="R4">
-        <v>-2.499874296854969E-14</v>
+        <v>0.0539951132830362</v>
       </c>
       <c r="S4">
-        <v>-3.793566978958493E-14</v>
+        <v>-0.05392838027735619</v>
       </c>
       <c r="T4">
-        <v>3.591129375358257E-11</v>
+        <v>-5.006518351741113E-12</v>
       </c>
       <c r="U4">
-        <v>-4.931128184783788E-11</v>
+        <v>-3.114348892609173E-09</v>
       </c>
       <c r="V4">
-        <v>2.389867518238442E-11</v>
+        <v>3.234196137123576E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04913932138920244</v>
+        <v>2.918330382954986E-14</v>
       </c>
       <c r="X4">
-        <v>-6.08759141058807E-14</v>
+        <v>-0.08491910237104366</v>
       </c>
       <c r="Y4">
-        <v>5.05394197313803E-14</v>
+        <v>-0.08349993601979268</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-84.79381555971922</v>
       </c>
       <c r="AA4">
-        <v>-170.4493210212929</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>14.85695434131824</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>90.18689470851835</v>
+        <v>-89.24661917396077</v>
       </c>
       <c r="AD4">
-        <v>90.18689438435972</v>
+        <v>-89.24661856807828</v>
       </c>
       <c r="AE4">
-        <v>90.18689442687683</v>
+        <v>-89.24661856810198</v>
       </c>
       <c r="AF4">
-        <v>0.9224887204894725</v>
+        <v>1.015377306145669</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="AH4">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="AI4">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="AK4">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="AL4">
-        <v>0.3192929610594648</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>147.6794363569256</v>
       </c>
       <c r="AO4">
-        <v>0.2095971264030684</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
   </sheetData>
@@ -5251,130 +5251,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.008000161111649157</v>
+        <v>0.01501633262181131</v>
       </c>
       <c r="C2">
-        <v>0.00800016201767729</v>
+        <v>0.01501633262734331</v>
       </c>
       <c r="D2">
-        <v>0.008000160202689495</v>
+        <v>0.01501633262734947</v>
       </c>
       <c r="E2">
-        <v>0.005300048348948055</v>
+        <v>0.6517744719190867</v>
       </c>
       <c r="F2">
-        <v>3.689427380142138</v>
+        <v>0.009812074698393385</v>
       </c>
       <c r="G2">
-        <v>3.737328754729523</v>
+        <v>0.00981207469839598</v>
       </c>
       <c r="H2">
-        <v>0.09237790342742033</v>
+        <v>0.1733936736288743</v>
       </c>
       <c r="I2">
-        <v>0.09237791388933206</v>
+        <v>0.1733936736927524</v>
       </c>
       <c r="J2">
-        <v>0.09237789293165823</v>
+        <v>0.1733936736928235</v>
       </c>
       <c r="K2">
-        <v>0.06119968681966383</v>
+        <v>7.526043336268217</v>
       </c>
       <c r="L2">
-        <v>42.60183782161278</v>
+        <v>0.1133000793685228</v>
       </c>
       <c r="M2">
-        <v>43.15495525186438</v>
+        <v>0.1133000793685527</v>
       </c>
       <c r="N2">
-        <v>0.0005324271185144976</v>
+        <v>-3.114713019502252E-13</v>
       </c>
       <c r="O2">
-        <v>-4.841173360033667E-14</v>
+        <v>0.1661175663789741</v>
       </c>
       <c r="P2">
-        <v>-4.219198246329297E-14</v>
+        <v>-0.1642417494074184</v>
       </c>
       <c r="Q2">
-        <v>-3.894411801779471E-05</v>
+        <v>1.235443327595757E-11</v>
       </c>
       <c r="R2">
-        <v>7.802906001702377E-11</v>
+        <v>-0.1079902317410063</v>
       </c>
       <c r="S2">
-        <v>8.254751354086077E-11</v>
+        <v>0.1078567555206978</v>
       </c>
       <c r="T2">
-        <v>-0.1490935465903121</v>
+        <v>9.093607781311216E-14</v>
       </c>
       <c r="U2">
-        <v>-8.297209961354363E-14</v>
+        <v>-0.2626778877456835</v>
       </c>
       <c r="V2">
-        <v>7.968410399878093E-14</v>
+        <v>-0.2626000242294005</v>
       </c>
       <c r="W2">
-        <v>0.09827864280208969</v>
+        <v>-4.835982395678464E-12</v>
       </c>
       <c r="X2">
-        <v>-4.80190373639968E-11</v>
+        <v>0.1698382015119615</v>
       </c>
       <c r="Y2">
-        <v>3.359259244447917E-11</v>
+        <v>0.1669998753507907</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-84.79381555971922</v>
       </c>
       <c r="AA2">
-        <v>-170.4493210212929</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>14.85695434131824</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-89.81310702801451</v>
+        <v>95.13921755886028</v>
       </c>
       <c r="AD2">
-        <v>9.469467404973022</v>
+        <v>90.75337969533705</v>
       </c>
       <c r="AE2">
-        <v>-165.0644411599965</v>
+        <v>90.75337969539673</v>
       </c>
       <c r="AF2">
-        <v>0.9318218419616013</v>
+        <v>1.034862894271765</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.100000023842451</v>
       </c>
       <c r="AH2">
-        <v>0.9318218419626179</v>
+        <v>1.031318204562458</v>
       </c>
       <c r="AI2">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="AK2">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="AL2">
-        <v>0.05810097840181528</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-147.6772243282247</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>147.9898092982228</v>
       </c>
       <c r="AO2">
-        <v>0.2095971264030684</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5382,130 +5382,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.608492552139156</v>
       </c>
       <c r="C3">
-        <v>2.971863590859358</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.027772914398423</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002650024173803555</v>
+        <v>0.004906037340876952</v>
       </c>
       <c r="F3">
-        <v>0.002650024474393969</v>
+        <v>0.004906037347953541</v>
       </c>
       <c r="G3">
-        <v>0.002650023869395167</v>
+        <v>0.004906037347954367</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.026266775548482</v>
       </c>
       <c r="I3">
-        <v>34.31612488354996</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>34.96171014345975</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03059984340208997</v>
+        <v>0.05665003958819329</v>
       </c>
       <c r="L3">
-        <v>0.03059984687300909</v>
+        <v>0.0566500396699067</v>
       </c>
       <c r="M3">
-        <v>0.03059983988708468</v>
+        <v>0.05665003966991623</v>
       </c>
       <c r="N3">
-        <v>-2.916506449088297E-09</v>
+        <v>1.046053724022982E-11</v>
       </c>
       <c r="O3">
-        <v>6.740758445461162E-11</v>
+        <v>-4.967817767105375E-09</v>
       </c>
       <c r="P3">
-        <v>7.836405582327982E-11</v>
+        <v>-4.760297036969992E-09</v>
       </c>
       <c r="Q3">
-        <v>1.947056967253694E-05</v>
+        <v>-9.550569284837423E-14</v>
       </c>
       <c r="R3">
-        <v>-2.499874296848956E-14</v>
+        <v>0.0539951132830508</v>
       </c>
       <c r="S3">
-        <v>-3.793566978958493E-14</v>
+        <v>-0.05392838027735619</v>
       </c>
       <c r="T3">
-        <v>3.589605116666573E-11</v>
+        <v>-5.000399275945883E-12</v>
       </c>
       <c r="U3">
-        <v>-4.929529953771846E-11</v>
+        <v>-3.114413619497955E-09</v>
       </c>
       <c r="V3">
-        <v>2.396896341471977E-11</v>
+        <v>3.234218701084548E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04913932138920244</v>
+        <v>2.918330382956589E-14</v>
       </c>
       <c r="X3">
-        <v>-6.087591410594916E-14</v>
+        <v>-0.08491910237097378</v>
       </c>
       <c r="Y3">
-        <v>5.05394197313803E-14</v>
+        <v>-0.08349993601979268</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-84.79381555971922</v>
       </c>
       <c r="AA3">
-        <v>-170.4493210212929</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.85695434131824</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>90.18689470851835</v>
+        <v>-89.24661917395117</v>
       </c>
       <c r="AD3">
-        <v>90.18689438428864</v>
+        <v>-89.24661856810663</v>
       </c>
       <c r="AE3">
-        <v>90.18689442687683</v>
+        <v>-89.24661856810198</v>
       </c>
       <c r="AF3">
-        <v>0.9224887204894726</v>
+        <v>1.015377306145668</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="AH3">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="AI3">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="AK3">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="AL3">
-        <v>0.3192929610594322</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>147.6794363569257</v>
       </c>
       <c r="AO3">
-        <v>0.2095971264030684</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5513,130 +5513,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6084925521391535</v>
       </c>
       <c r="C4">
-        <v>2.971863590859354</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.027772914398418</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002650024173803555</v>
+        <v>0.004906037340876941</v>
       </c>
       <c r="F4">
-        <v>0.002650024474392338</v>
+        <v>0.004906037347956035</v>
       </c>
       <c r="G4">
-        <v>0.002650023869395167</v>
+        <v>0.004906037347954367</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.026266775548454</v>
       </c>
       <c r="I4">
-        <v>34.31612488354992</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>34.96171014345968</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03059984340208997</v>
+        <v>0.05665003958819315</v>
       </c>
       <c r="L4">
-        <v>0.03059984687299026</v>
+        <v>0.05665003966993549</v>
       </c>
       <c r="M4">
-        <v>0.03059983988708468</v>
+        <v>0.05665003966991623</v>
       </c>
       <c r="N4">
-        <v>-2.916487612016462E-09</v>
+        <v>1.045928982926053E-11</v>
       </c>
       <c r="O4">
-        <v>6.742301415480885E-11</v>
+        <v>-4.967811135967957E-09</v>
       </c>
       <c r="P4">
-        <v>7.831995536333834E-11</v>
+        <v>-4.760291960470648E-09</v>
       </c>
       <c r="Q4">
-        <v>1.947056967253694E-05</v>
+        <v>-9.550569284837889E-14</v>
       </c>
       <c r="R4">
-        <v>-2.499874296854969E-14</v>
+        <v>0.0539951132830362</v>
       </c>
       <c r="S4">
-        <v>-3.793566978958493E-14</v>
+        <v>-0.05392838027735619</v>
       </c>
       <c r="T4">
-        <v>3.591129375358257E-11</v>
+        <v>-5.006518351741113E-12</v>
       </c>
       <c r="U4">
-        <v>-4.931128184783788E-11</v>
+        <v>-3.114348892609173E-09</v>
       </c>
       <c r="V4">
-        <v>2.389867518238442E-11</v>
+        <v>3.234196137123576E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04913932138920244</v>
+        <v>2.918330382954986E-14</v>
       </c>
       <c r="X4">
-        <v>-6.08759141058807E-14</v>
+        <v>-0.08491910237104366</v>
       </c>
       <c r="Y4">
-        <v>5.05394197313803E-14</v>
+        <v>-0.08349993601979268</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-84.79381555971922</v>
       </c>
       <c r="AA4">
-        <v>-170.4493210212929</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>14.85695434131824</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>90.18689470851835</v>
+        <v>-89.24661917396077</v>
       </c>
       <c r="AD4">
-        <v>90.18689438435972</v>
+        <v>-89.24661856807828</v>
       </c>
       <c r="AE4">
-        <v>90.18689442687683</v>
+        <v>-89.24661856810198</v>
       </c>
       <c r="AF4">
-        <v>0.9224887204894725</v>
+        <v>1.015377306145669</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="AH4">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="AI4">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="AK4">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="AL4">
-        <v>0.3192929610594648</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-146.043856948557</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>147.6794363569256</v>
       </c>
       <c r="AO4">
-        <v>0.2095971264030684</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-146.7967131552764</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>147.8970114820788</v>
       </c>
     </row>
   </sheetData>
@@ -5788,130 +5788,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006951505608221835</v>
+        <v>0.01159637832285328</v>
       </c>
       <c r="C2">
-        <v>0.006951505819505535</v>
+        <v>0.01159637832712408</v>
       </c>
       <c r="D2">
-        <v>0.006951505394391481</v>
+        <v>0.01159637832712494</v>
       </c>
       <c r="E2">
-        <v>0.004593182332151335</v>
+        <v>0.5033121591567267</v>
       </c>
       <c r="F2">
-        <v>1.078619501605515</v>
+        <v>0.007577063409241611</v>
       </c>
       <c r="G2">
-        <v>1.207248425610281</v>
+        <v>0.007577063409245259</v>
       </c>
       <c r="H2">
-        <v>0.08026907268360139</v>
+        <v>0.1339034429264817</v>
       </c>
       <c r="I2">
-        <v>0.08026907512329542</v>
+        <v>0.1339034429757966</v>
       </c>
       <c r="J2">
-        <v>0.08026907021450115</v>
+        <v>0.1339034429758065</v>
       </c>
       <c r="K2">
-        <v>0.05303750111809213</v>
+        <v>5.811748211510959</v>
       </c>
       <c r="L2">
-        <v>12.45482519210248</v>
+        <v>0.08749239197985015</v>
       </c>
       <c r="M2">
-        <v>13.94010407009695</v>
+        <v>0.08749239197989228</v>
       </c>
       <c r="N2">
-        <v>-0.01044442310628627</v>
+        <v>0.03018375914143179</v>
       </c>
       <c r="O2">
-        <v>-0.05257468435852809</v>
+        <v>0.1103157169083971</v>
       </c>
       <c r="P2">
-        <v>0.06342109920152511</v>
+        <v>-0.1393807922555644</v>
       </c>
       <c r="Q2">
-        <v>0.006315928537964022</v>
+        <v>-1.246145154450916</v>
       </c>
       <c r="R2">
-        <v>-5.803171563359276</v>
+        <v>-0.07324268945258468</v>
       </c>
       <c r="S2">
-        <v>-7.293544544324773</v>
+        <v>0.0904301486292519</v>
       </c>
       <c r="T2">
-        <v>-0.1234984429175771</v>
+        <v>0.03041456889841441</v>
       </c>
       <c r="U2">
-        <v>0.02317304829632131</v>
+        <v>-0.19800083266737</v>
       </c>
       <c r="V2">
-        <v>-0.01224368715072716</v>
+        <v>-0.1456745922053452</v>
       </c>
       <c r="W2">
-        <v>0.08122884907759696</v>
+        <v>-1.249061534829634</v>
       </c>
       <c r="X2">
-        <v>-5.849244308703876</v>
+        <v>0.1263235214913513</v>
       </c>
       <c r="Y2">
-        <v>-7.248543496355055</v>
+        <v>0.09472355322892875</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-74.61967178305957</v>
       </c>
       <c r="AA2">
-        <v>-151.7945368003599</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>41.98237153990289</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-83.59321812540396</v>
+        <v>105.3133613355198</v>
       </c>
       <c r="AD2">
-        <v>27.97892132798867</v>
+        <v>100.9275234719938</v>
       </c>
       <c r="AE2">
-        <v>-137.8403250435261</v>
+        <v>100.9275234720548</v>
       </c>
       <c r="AF2">
-        <v>1.097621028582164</v>
+        <v>1.043702907371753</v>
       </c>
       <c r="AG2">
-        <v>0.8723446855797308</v>
+        <v>1.100000023842581</v>
       </c>
       <c r="AH2">
-        <v>0.9605330069427555</v>
+        <v>1.054025734328035</v>
       </c>
       <c r="AI2">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="AJ2">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="AK2">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="AL2">
-        <v>2.093795107445995</v>
+        <v>-32.94617420944358</v>
       </c>
       <c r="AM2">
-        <v>-106.8583055569838</v>
+        <v>-139.0401364232156</v>
       </c>
       <c r="AN2">
-        <v>86.00112104239247</v>
+        <v>148.1004369773258</v>
       </c>
       <c r="AO2">
-        <v>1.960708708536004</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP2">
-        <v>-106.7945368002055</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ2">
-        <v>86.98237154000461</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5919,130 +5919,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4714994675461401</v>
       </c>
       <c r="C3">
-        <v>1.004677086982775</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.111444801237842</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002296591165495993</v>
+        <v>0.003788531698197654</v>
       </c>
       <c r="F3">
-        <v>0.002296591252372306</v>
+        <v>0.003788531703657876</v>
       </c>
       <c r="G3">
-        <v>0.002296591075307031</v>
+        <v>0.003788531703661488</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.444406890210584</v>
       </c>
       <c r="I3">
-        <v>11.60101173236308</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.83385910368157</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02651875055235256</v>
+        <v>0.04374619591575691</v>
       </c>
       <c r="L3">
-        <v>0.02651875155551381</v>
+        <v>0.04374619597880613</v>
       </c>
       <c r="M3">
-        <v>0.02651874951094013</v>
+        <v>0.04374619597884782</v>
       </c>
       <c r="N3">
-        <v>-2.410094794086412E-09</v>
+        <v>-1.111558738950429</v>
       </c>
       <c r="O3">
-        <v>-5.046880246097428</v>
+        <v>-3.67178977728931E-09</v>
       </c>
       <c r="P3">
-        <v>-6.176547729510823</v>
+        <v>-2.76096683890977E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.003157965499166904</v>
+        <v>0.00863352711378226</v>
       </c>
       <c r="R3">
-        <v>-0.01612482405328784</v>
+        <v>0.03662134280266105</v>
       </c>
       <c r="S3">
-        <v>0.01929741161594127</v>
+        <v>-0.0452150757385751</v>
       </c>
       <c r="T3">
-        <v>1.970039044236998E-10</v>
+        <v>-1.111558740218828</v>
       </c>
       <c r="U3">
-        <v>-5.046880246583671</v>
+        <v>-2.155504886845726E-09</v>
       </c>
       <c r="V3">
-        <v>-6.17654773162051</v>
+        <v>2.681419979225611E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04061442443283243</v>
+        <v>0.01009171663208383</v>
       </c>
       <c r="X3">
-        <v>0.006911548411385446</v>
+        <v>-0.06316176183955119</v>
       </c>
       <c r="Y3">
-        <v>-0.003203113442344691</v>
+        <v>-0.04736177523208997</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-74.61967178305957</v>
       </c>
       <c r="AA3">
-        <v>-151.7945368003599</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>41.98237153990289</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>96.40678361116568</v>
+        <v>-79.07247539728115</v>
       </c>
       <c r="AD3">
-        <v>96.40678397693914</v>
+        <v>-79.07247479146336</v>
       </c>
       <c r="AE3">
-        <v>96.40678263953386</v>
+        <v>-79.07247479144232</v>
       </c>
       <c r="AF3">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="AG3">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="AH3">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="AI3">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="AJ3">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="AK3">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="AL3">
-        <v>1.830495021156142</v>
+        <v>-26.82362012912552</v>
       </c>
       <c r="AM3">
-        <v>-106.7445086067049</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN3">
-        <v>87.83273417355092</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO3">
-        <v>1.960708708536004</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP3">
-        <v>-106.7945368002055</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ3">
-        <v>86.98237154000461</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6050,130 +6050,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4714994675461409</v>
       </c>
       <c r="C4">
-        <v>1.004677086982774</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.111444801237842</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002296591165495948</v>
+        <v>0.003788531698195888</v>
       </c>
       <c r="F4">
-        <v>0.002296591252372306</v>
+        <v>0.003788531703662124</v>
       </c>
       <c r="G4">
-        <v>0.002296591075307076</v>
+        <v>0.003788531703661488</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.444406890210594</v>
       </c>
       <c r="I4">
-        <v>11.60101173236307</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.83385910368157</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02651875055235204</v>
+        <v>0.04374619591573652</v>
       </c>
       <c r="L4">
-        <v>0.02651875155551381</v>
+        <v>0.04374619597885517</v>
       </c>
       <c r="M4">
-        <v>0.02651874951094066</v>
+        <v>0.04374619597884782</v>
       </c>
       <c r="N4">
-        <v>-2.410097298341552E-09</v>
+        <v>-1.111558738950436</v>
       </c>
       <c r="O4">
-        <v>-5.046880246097414</v>
+        <v>-3.671814372886968E-09</v>
       </c>
       <c r="P4">
-        <v>-6.176547729510812</v>
+        <v>-2.760974628787355E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.003157965499159632</v>
+        <v>0.008633527113776917</v>
       </c>
       <c r="R4">
-        <v>-0.01612482405328784</v>
+        <v>0.03662134280266006</v>
       </c>
       <c r="S4">
-        <v>0.01929741161594108</v>
+        <v>-0.0452150757385751</v>
       </c>
       <c r="T4">
-        <v>1.970255674844851E-10</v>
+        <v>-1.111558740218828</v>
       </c>
       <c r="U4">
-        <v>-5.046880246583688</v>
+        <v>-2.155500434450823E-09</v>
       </c>
       <c r="V4">
-        <v>-6.176547731620504</v>
+        <v>2.681408209043645E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04061442443283218</v>
+        <v>0.01009171663208025</v>
       </c>
       <c r="X4">
-        <v>0.006911548411385446</v>
+        <v>-0.06316176183964638</v>
       </c>
       <c r="Y4">
-        <v>-0.003203113442348181</v>
+        <v>-0.04736177523208997</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-74.61967178305957</v>
       </c>
       <c r="AA4">
-        <v>-151.7945368003599</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>41.98237153990289</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>96.40678361115549</v>
+        <v>-79.07247539728864</v>
       </c>
       <c r="AD4">
-        <v>96.40678397693914</v>
+        <v>-79.07247479142522</v>
       </c>
       <c r="AE4">
-        <v>96.40678263954403</v>
+        <v>-79.07247479144232</v>
       </c>
       <c r="AF4">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="AG4">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="AH4">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="AI4">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="AJ4">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="AK4">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="AL4">
-        <v>1.830495021156094</v>
+        <v>-26.82362012912548</v>
       </c>
       <c r="AM4">
-        <v>-106.7445086067047</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN4">
-        <v>87.83273417355086</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO4">
-        <v>1.960708708536004</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP4">
-        <v>-106.7945368002055</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ4">
-        <v>86.98237154000461</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
   </sheetData>
@@ -6550,130 +6550,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006951505608221835</v>
+        <v>0.01159637832285328</v>
       </c>
       <c r="C2">
-        <v>0.006951505819505535</v>
+        <v>0.01159637832712408</v>
       </c>
       <c r="D2">
-        <v>0.006951505394391481</v>
+        <v>0.01159637832712494</v>
       </c>
       <c r="E2">
-        <v>0.004593182332151335</v>
+        <v>0.5033121591567267</v>
       </c>
       <c r="F2">
-        <v>1.078619501605515</v>
+        <v>0.007577063409241611</v>
       </c>
       <c r="G2">
-        <v>1.207248425610281</v>
+        <v>0.007577063409245259</v>
       </c>
       <c r="H2">
-        <v>0.08026907268360139</v>
+        <v>0.1339034429264817</v>
       </c>
       <c r="I2">
-        <v>0.08026907512329542</v>
+        <v>0.1339034429757966</v>
       </c>
       <c r="J2">
-        <v>0.08026907021450115</v>
+        <v>0.1339034429758065</v>
       </c>
       <c r="K2">
-        <v>0.05303750111809213</v>
+        <v>5.811748211510959</v>
       </c>
       <c r="L2">
-        <v>12.45482519210248</v>
+        <v>0.08749239197985015</v>
       </c>
       <c r="M2">
-        <v>13.94010407009695</v>
+        <v>0.08749239197989228</v>
       </c>
       <c r="N2">
-        <v>-0.01044442310628627</v>
+        <v>0.03018375914143179</v>
       </c>
       <c r="O2">
-        <v>-0.05257468435852809</v>
+        <v>0.1103157169083971</v>
       </c>
       <c r="P2">
-        <v>0.06342109920152511</v>
+        <v>-0.1393807922555644</v>
       </c>
       <c r="Q2">
-        <v>0.006315928537964022</v>
+        <v>-1.246145154450916</v>
       </c>
       <c r="R2">
-        <v>-5.803171563359276</v>
+        <v>-0.07324268945258468</v>
       </c>
       <c r="S2">
-        <v>-7.293544544324773</v>
+        <v>0.0904301486292519</v>
       </c>
       <c r="T2">
-        <v>-0.1234984429175771</v>
+        <v>0.03041456889841441</v>
       </c>
       <c r="U2">
-        <v>0.02317304829632131</v>
+        <v>-0.19800083266737</v>
       </c>
       <c r="V2">
-        <v>-0.01224368715072716</v>
+        <v>-0.1456745922053452</v>
       </c>
       <c r="W2">
-        <v>0.08122884907759696</v>
+        <v>-1.249061534829634</v>
       </c>
       <c r="X2">
-        <v>-5.849244308703876</v>
+        <v>0.1263235214913513</v>
       </c>
       <c r="Y2">
-        <v>-7.248543496355055</v>
+        <v>0.09472355322892875</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-74.61967178305957</v>
       </c>
       <c r="AA2">
-        <v>-151.7945368003599</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>41.98237153990289</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-83.59321812540396</v>
+        <v>105.3133613355198</v>
       </c>
       <c r="AD2">
-        <v>27.97892132798867</v>
+        <v>100.9275234719938</v>
       </c>
       <c r="AE2">
-        <v>-137.8403250435261</v>
+        <v>100.9275234720548</v>
       </c>
       <c r="AF2">
-        <v>1.097621028582164</v>
+        <v>1.043702907371753</v>
       </c>
       <c r="AG2">
-        <v>0.8723446855797308</v>
+        <v>1.100000023842581</v>
       </c>
       <c r="AH2">
-        <v>0.9605330069427555</v>
+        <v>1.054025734328035</v>
       </c>
       <c r="AI2">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="AJ2">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="AK2">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="AL2">
-        <v>2.093795107445995</v>
+        <v>-32.94617420944358</v>
       </c>
       <c r="AM2">
-        <v>-106.8583055569838</v>
+        <v>-139.0401364232156</v>
       </c>
       <c r="AN2">
-        <v>86.00112104239247</v>
+        <v>148.1004369773258</v>
       </c>
       <c r="AO2">
-        <v>1.960708708536004</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP2">
-        <v>-106.7945368002055</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ2">
-        <v>86.98237154000461</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6681,130 +6681,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4714994675461401</v>
       </c>
       <c r="C3">
-        <v>1.004677086982775</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.111444801237842</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002296591165495993</v>
+        <v>0.003788531698197654</v>
       </c>
       <c r="F3">
-        <v>0.002296591252372306</v>
+        <v>0.003788531703657876</v>
       </c>
       <c r="G3">
-        <v>0.002296591075307031</v>
+        <v>0.003788531703661488</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.444406890210584</v>
       </c>
       <c r="I3">
-        <v>11.60101173236308</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.83385910368157</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02651875055235256</v>
+        <v>0.04374619591575691</v>
       </c>
       <c r="L3">
-        <v>0.02651875155551381</v>
+        <v>0.04374619597880613</v>
       </c>
       <c r="M3">
-        <v>0.02651874951094013</v>
+        <v>0.04374619597884782</v>
       </c>
       <c r="N3">
-        <v>-2.410094794086412E-09</v>
+        <v>-1.111558738950429</v>
       </c>
       <c r="O3">
-        <v>-5.046880246097428</v>
+        <v>-3.67178977728931E-09</v>
       </c>
       <c r="P3">
-        <v>-6.176547729510823</v>
+        <v>-2.76096683890977E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.003157965499166904</v>
+        <v>0.00863352711378226</v>
       </c>
       <c r="R3">
-        <v>-0.01612482405328784</v>
+        <v>0.03662134280266105</v>
       </c>
       <c r="S3">
-        <v>0.01929741161594127</v>
+        <v>-0.0452150757385751</v>
       </c>
       <c r="T3">
-        <v>1.970039044236998E-10</v>
+        <v>-1.111558740218828</v>
       </c>
       <c r="U3">
-        <v>-5.046880246583671</v>
+        <v>-2.155504886845726E-09</v>
       </c>
       <c r="V3">
-        <v>-6.17654773162051</v>
+        <v>2.681419979225611E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04061442443283243</v>
+        <v>0.01009171663208383</v>
       </c>
       <c r="X3">
-        <v>0.006911548411385446</v>
+        <v>-0.06316176183955119</v>
       </c>
       <c r="Y3">
-        <v>-0.003203113442344691</v>
+        <v>-0.04736177523208997</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-74.61967178305957</v>
       </c>
       <c r="AA3">
-        <v>-151.7945368003599</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>41.98237153990289</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>96.40678361116568</v>
+        <v>-79.07247539728115</v>
       </c>
       <c r="AD3">
-        <v>96.40678397693914</v>
+        <v>-79.07247479146336</v>
       </c>
       <c r="AE3">
-        <v>96.40678263953386</v>
+        <v>-79.07247479144232</v>
       </c>
       <c r="AF3">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="AG3">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="AH3">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="AI3">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="AJ3">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="AK3">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="AL3">
-        <v>1.830495021156142</v>
+        <v>-26.82362012912552</v>
       </c>
       <c r="AM3">
-        <v>-106.7445086067049</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN3">
-        <v>87.83273417355092</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO3">
-        <v>1.960708708536004</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP3">
-        <v>-106.7945368002055</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ3">
-        <v>86.98237154000461</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6812,130 +6812,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4714994675461409</v>
       </c>
       <c r="C4">
-        <v>1.004677086982774</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.111444801237842</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002296591165495948</v>
+        <v>0.003788531698195888</v>
       </c>
       <c r="F4">
-        <v>0.002296591252372306</v>
+        <v>0.003788531703662124</v>
       </c>
       <c r="G4">
-        <v>0.002296591075307076</v>
+        <v>0.003788531703661488</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.444406890210594</v>
       </c>
       <c r="I4">
-        <v>11.60101173236307</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.83385910368157</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02651875055235204</v>
+        <v>0.04374619591573652</v>
       </c>
       <c r="L4">
-        <v>0.02651875155551381</v>
+        <v>0.04374619597885517</v>
       </c>
       <c r="M4">
-        <v>0.02651874951094066</v>
+        <v>0.04374619597884782</v>
       </c>
       <c r="N4">
-        <v>-2.410097298341552E-09</v>
+        <v>-1.111558738950436</v>
       </c>
       <c r="O4">
-        <v>-5.046880246097414</v>
+        <v>-3.671814372886968E-09</v>
       </c>
       <c r="P4">
-        <v>-6.176547729510812</v>
+        <v>-2.760974628787355E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.003157965499159632</v>
+        <v>0.008633527113776917</v>
       </c>
       <c r="R4">
-        <v>-0.01612482405328784</v>
+        <v>0.03662134280266006</v>
       </c>
       <c r="S4">
-        <v>0.01929741161594108</v>
+        <v>-0.0452150757385751</v>
       </c>
       <c r="T4">
-        <v>1.970255674844851E-10</v>
+        <v>-1.111558740218828</v>
       </c>
       <c r="U4">
-        <v>-5.046880246583688</v>
+        <v>-2.155500434450823E-09</v>
       </c>
       <c r="V4">
-        <v>-6.176547731620504</v>
+        <v>2.681408209043645E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04061442443283218</v>
+        <v>0.01009171663208025</v>
       </c>
       <c r="X4">
-        <v>0.006911548411385446</v>
+        <v>-0.06316176183964638</v>
       </c>
       <c r="Y4">
-        <v>-0.003203113442348181</v>
+        <v>-0.04736177523208997</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-74.61967178305957</v>
       </c>
       <c r="AA4">
-        <v>-151.7945368003599</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>41.98237153990289</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>96.40678361115549</v>
+        <v>-79.07247539728864</v>
       </c>
       <c r="AD4">
-        <v>96.40678397693914</v>
+        <v>-79.07247479142522</v>
       </c>
       <c r="AE4">
-        <v>96.40678263954403</v>
+        <v>-79.07247479144232</v>
       </c>
       <c r="AF4">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="AG4">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="AH4">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="AI4">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="AJ4">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="AK4">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="AL4">
-        <v>1.830495021156094</v>
+        <v>-26.82362012912548</v>
       </c>
       <c r="AM4">
-        <v>-106.7445086067047</v>
+        <v>-138.9206046425662</v>
       </c>
       <c r="AN4">
-        <v>87.83273417355086</v>
+        <v>146.5021525771005</v>
       </c>
       <c r="AO4">
-        <v>1.960708708536004</v>
+        <v>-29.61967178281942</v>
       </c>
       <c r="AP4">
-        <v>-106.7945368002055</v>
+        <v>-138.9672129624686</v>
       </c>
       <c r="AQ4">
-        <v>86.98237154000461</v>
+        <v>147.2558786972415</v>
       </c>
     </row>
   </sheetData>
@@ -7087,130 +7087,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.007265317358306065</v>
+        <v>0.01359901718817787</v>
       </c>
       <c r="C2">
-        <v>0.007265318181969523</v>
+        <v>0.01359901719311509</v>
       </c>
       <c r="D2">
-        <v>0.007265316532006028</v>
+        <v>0.01359901719311754</v>
       </c>
       <c r="E2">
-        <v>0.004810448124427467</v>
+        <v>0.5846199791874934</v>
       </c>
       <c r="F2">
-        <v>3.090256703396253</v>
+        <v>0.00886604010896133</v>
       </c>
       <c r="G2">
-        <v>3.155873014208164</v>
+        <v>0.008866040108965124</v>
       </c>
       <c r="H2">
-        <v>0.08389265865132134</v>
+        <v>0.1570279246861769</v>
       </c>
       <c r="I2">
-        <v>0.08389266816216774</v>
+        <v>0.157027924743187</v>
       </c>
       <c r="J2">
-        <v>0.08389264911003037</v>
+        <v>0.1570279247432153</v>
       </c>
       <c r="K2">
-        <v>0.05554627039121857</v>
+        <v>6.750610047150655</v>
       </c>
       <c r="L2">
-        <v>35.68321079141744</v>
+        <v>0.1023762128710969</v>
       </c>
       <c r="M2">
-        <v>36.44088268562719</v>
+        <v>0.1023762128711407</v>
       </c>
       <c r="N2">
-        <v>0.0008430801221285248</v>
+        <v>1.232190438825657E-13</v>
       </c>
       <c r="O2">
-        <v>-7.951282592892586E-14</v>
+        <v>0.1374665114469373</v>
       </c>
       <c r="P2">
-        <v>8.500210675133628E-14</v>
+        <v>-0.1345127547705528</v>
       </c>
       <c r="Q2">
-        <v>-6.158945624980521E-05</v>
+        <v>-5.586143717182451E-12</v>
       </c>
       <c r="R2">
-        <v>-1.352121944060203E-10</v>
+        <v>-0.08874517741560115</v>
       </c>
       <c r="S2">
-        <v>2.969133435855659E-11</v>
+        <v>0.08853596151816689</v>
       </c>
       <c r="T2">
-        <v>-0.1229627807283842</v>
+        <v>1.028219854269026E-13</v>
       </c>
       <c r="U2">
-        <v>4.967853633084755E-14</v>
+        <v>-0.2150190914449636</v>
       </c>
       <c r="V2">
-        <v>4.165475370633771E-14</v>
+        <v>-0.2157847254316775</v>
       </c>
       <c r="W2">
-        <v>0.08096004513974354</v>
+        <v>-3.187798115015174E-12</v>
       </c>
       <c r="X2">
-        <v>-1.361305752859909E-10</v>
+        <v>0.1393834902058716</v>
       </c>
       <c r="Y2">
-        <v>-1.940425084799108E-10</v>
+        <v>0.1356332016967295</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-80.27880562926023</v>
       </c>
       <c r="AA2">
-        <v>-162.5102440701155</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>23.10948337003605</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-89.70302262459739</v>
+        <v>99.59262033998461</v>
       </c>
       <c r="AD2">
-        <v>17.40455178455316</v>
+        <v>91.21188108505517</v>
       </c>
       <c r="AE2">
-        <v>-156.8100130283359</v>
+        <v>91.21188108508646</v>
       </c>
       <c r="AF2">
-        <v>0.8462512019154312</v>
+        <v>0.9383262346624903</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.000000000000685</v>
       </c>
       <c r="AH2">
-        <v>0.8462512019153683</v>
+        <v>0.9349090119114009</v>
       </c>
       <c r="AI2">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="AK2">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="AL2">
-        <v>0.06185191722406379</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-147.5695994122703</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>147.900719969754</v>
       </c>
       <c r="AO2">
-        <v>0.3405644956728276</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7218,130 +7218,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5336417767187513</v>
       </c>
       <c r="C3">
-        <v>2.365362558187219</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.438396203867715</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002405224061214129</v>
+        <v>0.004433020042241193</v>
       </c>
       <c r="F3">
-        <v>0.002405224333387743</v>
+        <v>0.004433020052641089</v>
       </c>
       <c r="G3">
-        <v>0.002405223783397441</v>
+        <v>0.004433020052640944</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.161964468788026</v>
       </c>
       <c r="I3">
-        <v>27.31285419400905</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.15617409387974</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02777313518406685</v>
+        <v>0.05118810629421917</v>
       </c>
       <c r="L3">
-        <v>0.02777313832685703</v>
+        <v>0.05118810641430684</v>
       </c>
       <c r="M3">
-        <v>0.02777313197611606</v>
+        <v>0.05118810641430516</v>
       </c>
       <c r="N3">
-        <v>-2.382707091905265E-09</v>
+        <v>-4.921764143677771E-12</v>
       </c>
       <c r="O3">
-        <v>-1.32681674879451E-10</v>
+        <v>-4.052627095820563E-09</v>
       </c>
       <c r="P3">
-        <v>-4.928751391460109E-12</v>
+        <v>-3.776900032707095E-09</v>
       </c>
       <c r="Q3">
-        <v>3.079350550368436E-05</v>
+        <v>3.838282156175737E-14</v>
       </c>
       <c r="R3">
-        <v>-1.322236412108823E-13</v>
+        <v>0.04437258658449805</v>
       </c>
       <c r="S3">
-        <v>1.274363133230083E-13</v>
+        <v>-0.04426798278895447</v>
       </c>
       <c r="T3">
-        <v>4.843648916401782E-11</v>
+        <v>-1.940551282898382E-12</v>
       </c>
       <c r="U3">
-        <v>-9.577935446659948E-11</v>
+        <v>-2.499478146125128E-09</v>
       </c>
       <c r="V3">
-        <v>-1.690333044964933E-10</v>
+        <v>2.658709954120823E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04048002255397845</v>
+        <v>3.008784717106548E-14</v>
       </c>
       <c r="X3">
-        <v>6.941456452862878E-14</v>
+        <v>-0.06969174641419419</v>
       </c>
       <c r="Y3">
-        <v>7.837672088499307E-14</v>
+        <v>-0.06781659948316791</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-80.27880562926023</v>
       </c>
       <c r="AA3">
-        <v>-162.5102440701155</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>23.10948337003605</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>90.29697910588602</v>
+        <v>-88.78811782674464</v>
       </c>
       <c r="AD3">
-        <v>90.2969787508402</v>
+        <v>-88.78811718444184</v>
       </c>
       <c r="AE3">
-        <v>90.29697881872987</v>
+        <v>-88.78811718440468</v>
       </c>
       <c r="AF3">
-        <v>0.8363278178308594</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="AH3">
-        <v>0.836327817831066</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="AI3">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="AK3">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="AL3">
-        <v>0.5226334983204279</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>147.9167939912031</v>
       </c>
       <c r="AO3">
-        <v>0.3405644956728276</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7349,130 +7349,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5336417767187523</v>
       </c>
       <c r="C4">
-        <v>2.365362558187217</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.438396203867713</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002405224061214947</v>
+        <v>0.004433020042242065</v>
       </c>
       <c r="F4">
-        <v>0.002405224333391021</v>
+        <v>0.004433020052641515</v>
       </c>
       <c r="G4">
-        <v>0.002405223783395805</v>
+        <v>0.004433020052640106</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.161964468788037</v>
       </c>
       <c r="I4">
-        <v>27.31285419400903</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>28.15617409387971</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0277731351840763</v>
+        <v>0.05118810629422926</v>
       </c>
       <c r="L4">
-        <v>0.02777313832689488</v>
+        <v>0.05118810641431176</v>
       </c>
       <c r="M4">
-        <v>0.02777313197609716</v>
+        <v>0.05118810641429549</v>
       </c>
       <c r="N4">
-        <v>-2.382706966725334E-09</v>
+        <v>-4.924466096938914E-12</v>
       </c>
       <c r="O4">
-        <v>-1.326745831237551E-10</v>
+        <v>-4.052634973374703E-09</v>
       </c>
       <c r="P4">
-        <v>-4.920638237985459E-12</v>
+        <v>-3.776890755946758E-09</v>
       </c>
       <c r="Q4">
-        <v>3.079350551067053E-05</v>
+        <v>3.838282156178153E-14</v>
       </c>
       <c r="R4">
-        <v>-1.322236412110867E-13</v>
+        <v>0.04437258658448958</v>
       </c>
       <c r="S4">
-        <v>1.274363133229486E-13</v>
+        <v>-0.04426798278893382</v>
       </c>
       <c r="T4">
-        <v>4.842276619627934E-11</v>
+        <v>-1.939704140800824E-12</v>
       </c>
       <c r="U4">
-        <v>-9.573533016623477E-11</v>
+        <v>-2.499506609696736E-09</v>
       </c>
       <c r="V4">
-        <v>-1.69113946706513E-10</v>
+        <v>2.658669504144666E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04048002255399222</v>
+        <v>3.008784717105025E-14</v>
       </c>
       <c r="X4">
-        <v>6.941456452867733E-14</v>
+        <v>-0.06969174641420903</v>
       </c>
       <c r="Y4">
-        <v>7.837672088489581E-14</v>
+        <v>-0.06781659948316311</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-80.27880562926023</v>
       </c>
       <c r="AA4">
-        <v>-162.5102440701155</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>23.10948337003605</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>90.29697910587615</v>
+        <v>-88.78811782671306</v>
       </c>
       <c r="AD4">
-        <v>90.29697875082024</v>
+        <v>-88.78811718443137</v>
       </c>
       <c r="AE4">
-        <v>90.29697881874962</v>
+        <v>-88.78811718441507</v>
       </c>
       <c r="AF4">
-        <v>0.8363278178308589</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="AH4">
-        <v>0.8363278178310662</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="AI4">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="AK4">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="AL4">
-        <v>0.5226334983205004</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>147.9167939912032</v>
       </c>
       <c r="AO4">
-        <v>0.3405644956728276</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
   </sheetData>
@@ -7624,130 +7624,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.007265317358306065</v>
+        <v>0.01359901718817787</v>
       </c>
       <c r="C2">
-        <v>0.007265318181969523</v>
+        <v>0.01359901719311509</v>
       </c>
       <c r="D2">
-        <v>0.007265316532006028</v>
+        <v>0.01359901719311754</v>
       </c>
       <c r="E2">
-        <v>0.004810448124427467</v>
+        <v>0.5846199791874934</v>
       </c>
       <c r="F2">
-        <v>3.090256703396253</v>
+        <v>0.00886604010896133</v>
       </c>
       <c r="G2">
-        <v>3.155873014208164</v>
+        <v>0.008866040108965124</v>
       </c>
       <c r="H2">
-        <v>0.08389265865132134</v>
+        <v>0.1570279246861769</v>
       </c>
       <c r="I2">
-        <v>0.08389266816216774</v>
+        <v>0.157027924743187</v>
       </c>
       <c r="J2">
-        <v>0.08389264911003037</v>
+        <v>0.1570279247432153</v>
       </c>
       <c r="K2">
-        <v>0.05554627039121857</v>
+        <v>6.750610047150655</v>
       </c>
       <c r="L2">
-        <v>35.68321079141744</v>
+        <v>0.1023762128710969</v>
       </c>
       <c r="M2">
-        <v>36.44088268562719</v>
+        <v>0.1023762128711407</v>
       </c>
       <c r="N2">
-        <v>0.0008430801221285248</v>
+        <v>1.232190438825657E-13</v>
       </c>
       <c r="O2">
-        <v>-7.951282592892586E-14</v>
+        <v>0.1374665114469373</v>
       </c>
       <c r="P2">
-        <v>8.500210675133628E-14</v>
+        <v>-0.1345127547705528</v>
       </c>
       <c r="Q2">
-        <v>-6.158945624980521E-05</v>
+        <v>-5.586143717182451E-12</v>
       </c>
       <c r="R2">
-        <v>-1.352121944060203E-10</v>
+        <v>-0.08874517741560115</v>
       </c>
       <c r="S2">
-        <v>2.969133435855659E-11</v>
+        <v>0.08853596151816689</v>
       </c>
       <c r="T2">
-        <v>-0.1229627807283842</v>
+        <v>1.028219854269026E-13</v>
       </c>
       <c r="U2">
-        <v>4.967853633084755E-14</v>
+        <v>-0.2150190914449636</v>
       </c>
       <c r="V2">
-        <v>4.165475370633771E-14</v>
+        <v>-0.2157847254316775</v>
       </c>
       <c r="W2">
-        <v>0.08096004513974354</v>
+        <v>-3.187798115015174E-12</v>
       </c>
       <c r="X2">
-        <v>-1.361305752859909E-10</v>
+        <v>0.1393834902058716</v>
       </c>
       <c r="Y2">
-        <v>-1.940425084799108E-10</v>
+        <v>0.1356332016967295</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-80.27880562926023</v>
       </c>
       <c r="AA2">
-        <v>-162.5102440701155</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>23.10948337003605</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-89.70302262459739</v>
+        <v>99.59262033998461</v>
       </c>
       <c r="AD2">
-        <v>17.40455178455316</v>
+        <v>91.21188108505517</v>
       </c>
       <c r="AE2">
-        <v>-156.8100130283359</v>
+        <v>91.21188108508646</v>
       </c>
       <c r="AF2">
-        <v>0.8462512019154312</v>
+        <v>0.9383262346624903</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.000000000000685</v>
       </c>
       <c r="AH2">
-        <v>0.8462512019153683</v>
+        <v>0.9349090119114009</v>
       </c>
       <c r="AI2">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="AK2">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="AL2">
-        <v>0.06185191722406379</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-147.5695994122703</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>147.900719969754</v>
       </c>
       <c r="AO2">
-        <v>0.3405644956728276</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7755,130 +7755,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5336417767187513</v>
       </c>
       <c r="C3">
-        <v>2.365362558187219</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.438396203867715</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002405224061214129</v>
+        <v>0.004433020042241193</v>
       </c>
       <c r="F3">
-        <v>0.002405224333387743</v>
+        <v>0.004433020052641089</v>
       </c>
       <c r="G3">
-        <v>0.002405223783397441</v>
+        <v>0.004433020052640944</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.161964468788026</v>
       </c>
       <c r="I3">
-        <v>27.31285419400905</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.15617409387974</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02777313518406685</v>
+        <v>0.05118810629421917</v>
       </c>
       <c r="L3">
-        <v>0.02777313832685703</v>
+        <v>0.05118810641430684</v>
       </c>
       <c r="M3">
-        <v>0.02777313197611606</v>
+        <v>0.05118810641430516</v>
       </c>
       <c r="N3">
-        <v>-2.382707091905265E-09</v>
+        <v>-4.921764143677771E-12</v>
       </c>
       <c r="O3">
-        <v>-1.32681674879451E-10</v>
+        <v>-4.052627095820563E-09</v>
       </c>
       <c r="P3">
-        <v>-4.928751391460109E-12</v>
+        <v>-3.776900032707095E-09</v>
       </c>
       <c r="Q3">
-        <v>3.079350550368436E-05</v>
+        <v>3.838282156175737E-14</v>
       </c>
       <c r="R3">
-        <v>-1.322236412108823E-13</v>
+        <v>0.04437258658449805</v>
       </c>
       <c r="S3">
-        <v>1.274363133230083E-13</v>
+        <v>-0.04426798278895447</v>
       </c>
       <c r="T3">
-        <v>4.843648916401782E-11</v>
+        <v>-1.940551282898382E-12</v>
       </c>
       <c r="U3">
-        <v>-9.577935446659948E-11</v>
+        <v>-2.499478146125128E-09</v>
       </c>
       <c r="V3">
-        <v>-1.690333044964933E-10</v>
+        <v>2.658709954120823E-09</v>
       </c>
       <c r="W3">
-        <v>-0.04048002255397845</v>
+        <v>3.008784717106548E-14</v>
       </c>
       <c r="X3">
-        <v>6.941456452862878E-14</v>
+        <v>-0.06969174641419419</v>
       </c>
       <c r="Y3">
-        <v>7.837672088499307E-14</v>
+        <v>-0.06781659948316791</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-80.27880562926023</v>
       </c>
       <c r="AA3">
-        <v>-162.5102440701155</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>23.10948337003605</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>90.29697910588602</v>
+        <v>-88.78811782674464</v>
       </c>
       <c r="AD3">
-        <v>90.2969787508402</v>
+        <v>-88.78811718444184</v>
       </c>
       <c r="AE3">
-        <v>90.29697881872987</v>
+        <v>-88.78811718440468</v>
       </c>
       <c r="AF3">
-        <v>0.8363278178308594</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="AH3">
-        <v>0.836327817831066</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="AI3">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="AK3">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="AL3">
-        <v>0.5226334983204279</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>147.9167939912031</v>
       </c>
       <c r="AO3">
-        <v>0.3405644956728276</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7886,130 +7886,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5336417767187523</v>
       </c>
       <c r="C4">
-        <v>2.365362558187217</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.438396203867713</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002405224061214947</v>
+        <v>0.004433020042242065</v>
       </c>
       <c r="F4">
-        <v>0.002405224333391021</v>
+        <v>0.004433020052641515</v>
       </c>
       <c r="G4">
-        <v>0.002405223783395805</v>
+        <v>0.004433020052640106</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.161964468788037</v>
       </c>
       <c r="I4">
-        <v>27.31285419400903</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>28.15617409387971</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0277731351840763</v>
+        <v>0.05118810629422926</v>
       </c>
       <c r="L4">
-        <v>0.02777313832689488</v>
+        <v>0.05118810641431176</v>
       </c>
       <c r="M4">
-        <v>0.02777313197609716</v>
+        <v>0.05118810641429549</v>
       </c>
       <c r="N4">
-        <v>-2.382706966725334E-09</v>
+        <v>-4.924466096938914E-12</v>
       </c>
       <c r="O4">
-        <v>-1.326745831237551E-10</v>
+        <v>-4.052634973374703E-09</v>
       </c>
       <c r="P4">
-        <v>-4.920638237985459E-12</v>
+        <v>-3.776890755946758E-09</v>
       </c>
       <c r="Q4">
-        <v>3.079350551067053E-05</v>
+        <v>3.838282156178153E-14</v>
       </c>
       <c r="R4">
-        <v>-1.322236412110867E-13</v>
+        <v>0.04437258658448958</v>
       </c>
       <c r="S4">
-        <v>1.274363133229486E-13</v>
+        <v>-0.04426798278893382</v>
       </c>
       <c r="T4">
-        <v>4.842276619627934E-11</v>
+        <v>-1.939704140800824E-12</v>
       </c>
       <c r="U4">
-        <v>-9.573533016623477E-11</v>
+        <v>-2.499506609696736E-09</v>
       </c>
       <c r="V4">
-        <v>-1.69113946706513E-10</v>
+        <v>2.658669504144666E-09</v>
       </c>
       <c r="W4">
-        <v>-0.04048002255399222</v>
+        <v>3.008784717105025E-14</v>
       </c>
       <c r="X4">
-        <v>6.941456452867733E-14</v>
+        <v>-0.06969174641420903</v>
       </c>
       <c r="Y4">
-        <v>7.837672088489581E-14</v>
+        <v>-0.06781659948316311</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-80.27880562926023</v>
       </c>
       <c r="AA4">
-        <v>-162.5102440701155</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>23.10948337003605</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>90.29697910587615</v>
+        <v>-88.78811782671306</v>
       </c>
       <c r="AD4">
-        <v>90.29697875082024</v>
+        <v>-88.78811718443137</v>
       </c>
       <c r="AE4">
-        <v>90.29697881874962</v>
+        <v>-88.78811718441507</v>
       </c>
       <c r="AF4">
-        <v>0.8363278178308589</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="AH4">
-        <v>0.8363278178310662</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="AI4">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="AK4">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="AL4">
-        <v>0.5226334983205004</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-145.2754860103992</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>147.9167939912032</v>
       </c>
       <c r="AO4">
-        <v>0.3405644956728276</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-146.3032964867996</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>148.0769760730098</v>
       </c>
     </row>
   </sheetData>
@@ -8161,130 +8161,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006313903096958721</v>
+        <v>0.01051152255559081</v>
       </c>
       <c r="C2">
-        <v>0.006313903296368257</v>
+        <v>0.01051152255940613</v>
       </c>
       <c r="D2">
-        <v>0.006313902895257122</v>
+        <v>0.0105115225594096</v>
       </c>
       <c r="E2">
-        <v>0.004147213117525373</v>
+        <v>0.4483700224033163</v>
       </c>
       <c r="F2">
-        <v>0.9465869878739963</v>
+        <v>0.006799744695363258</v>
       </c>
       <c r="G2">
-        <v>1.05513961673634</v>
+        <v>0.006799744695366273</v>
       </c>
       <c r="H2">
-        <v>0.0729066730533266</v>
+        <v>0.1213766075412635</v>
       </c>
       <c r="I2">
-        <v>0.07290667535590958</v>
+        <v>0.121376607585319</v>
       </c>
       <c r="J2">
-        <v>0.07290667072427716</v>
+        <v>0.1213766075853592</v>
       </c>
       <c r="K2">
-        <v>0.04788789219580042</v>
+        <v>5.177331062622264</v>
       </c>
       <c r="L2">
-        <v>10.93024504520898</v>
+        <v>0.07851668860577414</v>
       </c>
       <c r="M2">
-        <v>12.18370283510728</v>
+        <v>0.07851668860580896</v>
       </c>
       <c r="N2">
-        <v>-0.008277462980780267</v>
+        <v>0.02470685518105017</v>
       </c>
       <c r="O2">
-        <v>-0.04289738398745896</v>
+        <v>0.09149072590444259</v>
       </c>
       <c r="P2">
-        <v>0.05181157462053072</v>
+        <v>-0.1144327998947351</v>
       </c>
       <c r="Q2">
-        <v>0.00465175353103812</v>
+        <v>-0.9878753400046408</v>
       </c>
       <c r="R2">
-        <v>-4.470067222289683</v>
+        <v>-0.0606705672785994</v>
       </c>
       <c r="S2">
-        <v>-5.570142957659387</v>
+        <v>0.07317572583758258</v>
       </c>
       <c r="T2">
-        <v>-0.1019122978878985</v>
+        <v>0.02507087828802883</v>
       </c>
       <c r="U2">
-        <v>0.01912521861614103</v>
+        <v>-0.1623996908693466</v>
       </c>
       <c r="V2">
-        <v>-0.01007968420660958</v>
+        <v>-0.1200636054428003</v>
       </c>
       <c r="W2">
-        <v>0.06652499121005219</v>
+        <v>-0.9923189830651131</v>
       </c>
       <c r="X2">
-        <v>-4.50600357978286</v>
+        <v>0.101457811945234</v>
       </c>
       <c r="Y2">
-        <v>-5.535859581408235</v>
+        <v>0.0773791702076564</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-71.29238990172766</v>
       </c>
       <c r="AA2">
-        <v>-150.1483073878182</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>44.13135103958994</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-84.11322662934801</v>
+        <v>108.5790360675171</v>
       </c>
       <c r="AD2">
-        <v>29.62230598404204</v>
+        <v>100.1982968125995</v>
       </c>
       <c r="AE2">
-        <v>-135.6917818543439</v>
+        <v>100.198296812609</v>
       </c>
       <c r="AF2">
-        <v>0.9969372067204435</v>
+        <v>0.9466316679700786</v>
       </c>
       <c r="AG2">
-        <v>0.784852101414068</v>
+        <v>1.000000000000384</v>
       </c>
       <c r="AH2">
-        <v>0.8690725778910023</v>
+        <v>0.9563641300866161</v>
       </c>
       <c r="AI2">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="AJ2">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="AK2">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="AL2">
-        <v>2.089868393738011</v>
+        <v>-32.96337052117936</v>
       </c>
       <c r="AM2">
-        <v>-107.2957348901595</v>
+        <v>-138.986863103398</v>
       </c>
       <c r="AN2">
-        <v>85.72422595375333</v>
+        <v>147.9931760528525</v>
       </c>
       <c r="AO2">
-        <v>1.88688223548469</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP2">
-        <v>-105.1483073878867</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ2">
-        <v>89.13135103973146</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8292,130 +8292,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4109764844045102</v>
       </c>
       <c r="C3">
-        <v>0.8628244192816512</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9457031949629577</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002073606557901575</v>
+        <v>0.003399872338294959</v>
       </c>
       <c r="F3">
-        <v>0.002073606641338549</v>
+        <v>0.003399872346269923</v>
       </c>
       <c r="G3">
-        <v>0.002073606469600127</v>
+        <v>0.003399872346270892</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.745547678031</v>
       </c>
       <c r="I3">
-        <v>9.963038214712878</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.92003988370706</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02394394608795695</v>
+        <v>0.03925834419449914</v>
       </c>
       <c r="L3">
-        <v>0.02394394705140414</v>
+        <v>0.03925834428658609</v>
       </c>
       <c r="M3">
-        <v>0.02394394506833965</v>
+        <v>0.03925834428659728</v>
       </c>
       <c r="N3">
-        <v>-1.956955351373469E-09</v>
+        <v>-0.8445083533411871</v>
       </c>
       <c r="O3">
-        <v>-3.722329893122674</v>
+        <v>-2.907506417241783E-09</v>
       </c>
       <c r="P3">
-        <v>-4.47177266382322</v>
+        <v>-2.233533354672806E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.002325877769177251</v>
+        <v>0.006314109934431514</v>
       </c>
       <c r="R3">
-        <v>-0.01297747388767801</v>
+        <v>0.03033528209455616</v>
       </c>
       <c r="S3">
-        <v>0.01532623814678579</v>
+        <v>-0.03658786407213685</v>
       </c>
       <c r="T3">
-        <v>1.481129021127018E-10</v>
+        <v>-0.8445083542980704</v>
       </c>
       <c r="U3">
-        <v>-3.722329893390749</v>
+        <v>-1.765781988521945E-09</v>
       </c>
       <c r="V3">
-        <v>-4.471772665488997</v>
+        <v>2.154885650905754E-09</v>
       </c>
       <c r="W3">
-        <v>-0.03326249552096486</v>
+        <v>0.00853593093564904</v>
       </c>
       <c r="X3">
-        <v>0.004990704726196235</v>
+        <v>-0.05072890686775924</v>
       </c>
       <c r="Y3">
-        <v>-0.001815450851564776</v>
+        <v>-0.03868958398269216</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-71.29238990172766</v>
       </c>
       <c r="AA3">
-        <v>-150.1483073878182</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>44.13135103958994</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>95.8867751011438</v>
+        <v>-79.80170209920081</v>
       </c>
       <c r="AD3">
-        <v>95.88677524770611</v>
+        <v>-79.80170145690859</v>
       </c>
       <c r="AE3">
-        <v>95.88677431232119</v>
+        <v>-79.8017014568764</v>
       </c>
       <c r="AF3">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442658</v>
       </c>
       <c r="AG3">
-        <v>0.6337732350778232</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="AH3">
-        <v>0.8677743776472471</v>
+        <v>0.9221519848974011</v>
       </c>
       <c r="AI3">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="AJ3">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="AK3">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="AL3">
-        <v>1.671451765044131</v>
+        <v>-20.89818686211935</v>
       </c>
       <c r="AM3">
-        <v>-103.3712639564099</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN3">
-        <v>91.8732144411657</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO3">
-        <v>1.88688223548469</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP3">
-        <v>-105.1483073878867</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ3">
-        <v>89.13135103973146</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8423,130 +8423,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4109764844045113</v>
       </c>
       <c r="C4">
-        <v>0.862824419281651</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9457031949629575</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002073606557901659</v>
+        <v>0.003399872338294297</v>
       </c>
       <c r="F4">
-        <v>0.002073606641338591</v>
+        <v>0.003399872346270674</v>
       </c>
       <c r="G4">
-        <v>0.002073606469600127</v>
+        <v>0.003399872346270488</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.745547678031013</v>
       </c>
       <c r="I4">
-        <v>9.963038214712874</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.92003988370706</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02394394608795793</v>
+        <v>0.0392583441944915</v>
       </c>
       <c r="L4">
-        <v>0.02394394705140463</v>
+        <v>0.03925834428659477</v>
       </c>
       <c r="M4">
-        <v>0.02394394506833965</v>
+        <v>0.03925834428659262</v>
       </c>
       <c r="N4">
-        <v>-1.956948985114933E-09</v>
+        <v>-0.8445083533411931</v>
       </c>
       <c r="O4">
-        <v>-3.722329893122662</v>
+        <v>-2.90751124657545E-09</v>
       </c>
       <c r="P4">
-        <v>-4.471772663823227</v>
+        <v>-2.23350858383024E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.002325877769190437</v>
+        <v>0.006314109934432678</v>
       </c>
       <c r="R4">
-        <v>-0.01297747388767729</v>
+        <v>0.03033528209455244</v>
       </c>
       <c r="S4">
-        <v>0.01532623814678579</v>
+        <v>-0.03658786407213332</v>
       </c>
       <c r="T4">
-        <v>1.481196510816397E-10</v>
+        <v>-0.8445083542980681</v>
       </c>
       <c r="U4">
-        <v>-3.722329893390756</v>
+        <v>-1.765797814575588E-09</v>
       </c>
       <c r="V4">
-        <v>-4.471772665488992</v>
+        <v>2.154876545240585E-09</v>
       </c>
       <c r="W4">
-        <v>-0.03326249552096529</v>
+        <v>0.008535930935645607</v>
       </c>
       <c r="X4">
-        <v>0.00499070472619889</v>
+        <v>-0.05072890686777668</v>
       </c>
       <c r="Y4">
-        <v>-0.001815450851564776</v>
+        <v>-0.03868958398268679</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-71.29238990172766</v>
       </c>
       <c r="AA4">
-        <v>-150.1483073878182</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>44.13135103958994</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>95.88677510116635</v>
+        <v>-79.80170209918475</v>
       </c>
       <c r="AD4">
-        <v>95.88677524771741</v>
+        <v>-79.80170145689682</v>
       </c>
       <c r="AE4">
-        <v>95.88677431232119</v>
+        <v>-79.80170145687518</v>
       </c>
       <c r="AF4">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442657</v>
       </c>
       <c r="AG4">
-        <v>0.6337732350778236</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="AH4">
-        <v>0.867774377647247</v>
+        <v>0.9221519848974012</v>
       </c>
       <c r="AI4">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="AJ4">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="AK4">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="AL4">
-        <v>1.671451765044135</v>
+        <v>-20.89818686211941</v>
       </c>
       <c r="AM4">
-        <v>-103.3712639564098</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN4">
-        <v>91.87321444116566</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO4">
-        <v>1.88688223548469</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP4">
-        <v>-105.1483073878867</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ4">
-        <v>89.13135103973146</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
   </sheetData>
@@ -8698,130 +8698,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.006313903096958721</v>
+        <v>0.01051152255559081</v>
       </c>
       <c r="C2">
-        <v>0.006313903296368257</v>
+        <v>0.01051152255940613</v>
       </c>
       <c r="D2">
-        <v>0.006313902895257122</v>
+        <v>0.0105115225594096</v>
       </c>
       <c r="E2">
-        <v>0.004147213117525373</v>
+        <v>0.4483700224033163</v>
       </c>
       <c r="F2">
-        <v>0.9465869878739963</v>
+        <v>0.006799744695363258</v>
       </c>
       <c r="G2">
-        <v>1.05513961673634</v>
+        <v>0.006799744695366273</v>
       </c>
       <c r="H2">
-        <v>0.0729066730533266</v>
+        <v>0.1213766075412635</v>
       </c>
       <c r="I2">
-        <v>0.07290667535590958</v>
+        <v>0.121376607585319</v>
       </c>
       <c r="J2">
-        <v>0.07290667072427716</v>
+        <v>0.1213766075853592</v>
       </c>
       <c r="K2">
-        <v>0.04788789219580042</v>
+        <v>5.177331062622264</v>
       </c>
       <c r="L2">
-        <v>10.93024504520898</v>
+        <v>0.07851668860577414</v>
       </c>
       <c r="M2">
-        <v>12.18370283510728</v>
+        <v>0.07851668860580896</v>
       </c>
       <c r="N2">
-        <v>-0.008277462980780267</v>
+        <v>0.02470685518105017</v>
       </c>
       <c r="O2">
-        <v>-0.04289738398745896</v>
+        <v>0.09149072590444259</v>
       </c>
       <c r="P2">
-        <v>0.05181157462053072</v>
+        <v>-0.1144327998947351</v>
       </c>
       <c r="Q2">
-        <v>0.00465175353103812</v>
+        <v>-0.9878753400046408</v>
       </c>
       <c r="R2">
-        <v>-4.470067222289683</v>
+        <v>-0.0606705672785994</v>
       </c>
       <c r="S2">
-        <v>-5.570142957659387</v>
+        <v>0.07317572583758258</v>
       </c>
       <c r="T2">
-        <v>-0.1019122978878985</v>
+        <v>0.02507087828802883</v>
       </c>
       <c r="U2">
-        <v>0.01912521861614103</v>
+        <v>-0.1623996908693466</v>
       </c>
       <c r="V2">
-        <v>-0.01007968420660958</v>
+        <v>-0.1200636054428003</v>
       </c>
       <c r="W2">
-        <v>0.06652499121005219</v>
+        <v>-0.9923189830651131</v>
       </c>
       <c r="X2">
-        <v>-4.50600357978286</v>
+        <v>0.101457811945234</v>
       </c>
       <c r="Y2">
-        <v>-5.535859581408235</v>
+        <v>0.0773791702076564</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-71.29238990172766</v>
       </c>
       <c r="AA2">
-        <v>-150.1483073878182</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>44.13135103958994</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-84.11322662934801</v>
+        <v>108.5790360675171</v>
       </c>
       <c r="AD2">
-        <v>29.62230598404204</v>
+        <v>100.1982968125995</v>
       </c>
       <c r="AE2">
-        <v>-135.6917818543439</v>
+        <v>100.198296812609</v>
       </c>
       <c r="AF2">
-        <v>0.9969372067204435</v>
+        <v>0.9466316679700786</v>
       </c>
       <c r="AG2">
-        <v>0.784852101414068</v>
+        <v>1.000000000000384</v>
       </c>
       <c r="AH2">
-        <v>0.8690725778910023</v>
+        <v>0.9563641300866161</v>
       </c>
       <c r="AI2">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="AJ2">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="AK2">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="AL2">
-        <v>2.089868393738011</v>
+        <v>-32.96337052117936</v>
       </c>
       <c r="AM2">
-        <v>-107.2957348901595</v>
+        <v>-138.986863103398</v>
       </c>
       <c r="AN2">
-        <v>85.72422595375333</v>
+        <v>147.9931760528525</v>
       </c>
       <c r="AO2">
-        <v>1.88688223548469</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP2">
-        <v>-105.1483073878867</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ2">
-        <v>89.13135103973146</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8829,130 +8829,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4109764844045102</v>
       </c>
       <c r="C3">
-        <v>0.8628244192816512</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9457031949629577</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.002073606557901575</v>
+        <v>0.003399872338294959</v>
       </c>
       <c r="F3">
-        <v>0.002073606641338549</v>
+        <v>0.003399872346269923</v>
       </c>
       <c r="G3">
-        <v>0.002073606469600127</v>
+        <v>0.003399872346270892</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.745547678031</v>
       </c>
       <c r="I3">
-        <v>9.963038214712878</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.92003988370706</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02394394608795695</v>
+        <v>0.03925834419449914</v>
       </c>
       <c r="L3">
-        <v>0.02394394705140414</v>
+        <v>0.03925834428658609</v>
       </c>
       <c r="M3">
-        <v>0.02394394506833965</v>
+        <v>0.03925834428659728</v>
       </c>
       <c r="N3">
-        <v>-1.956955351373469E-09</v>
+        <v>-0.8445083533411871</v>
       </c>
       <c r="O3">
-        <v>-3.722329893122674</v>
+        <v>-2.907506417241783E-09</v>
       </c>
       <c r="P3">
-        <v>-4.47177266382322</v>
+        <v>-2.233533354672806E-09</v>
       </c>
       <c r="Q3">
-        <v>-0.002325877769177251</v>
+        <v>0.006314109934431514</v>
       </c>
       <c r="R3">
-        <v>-0.01297747388767801</v>
+        <v>0.03033528209455616</v>
       </c>
       <c r="S3">
-        <v>0.01532623814678579</v>
+        <v>-0.03658786407213685</v>
       </c>
       <c r="T3">
-        <v>1.481129021127018E-10</v>
+        <v>-0.8445083542980704</v>
       </c>
       <c r="U3">
-        <v>-3.722329893390749</v>
+        <v>-1.765781988521945E-09</v>
       </c>
       <c r="V3">
-        <v>-4.471772665488997</v>
+        <v>2.154885650905754E-09</v>
       </c>
       <c r="W3">
-        <v>-0.03326249552096486</v>
+        <v>0.00853593093564904</v>
       </c>
       <c r="X3">
-        <v>0.004990704726196235</v>
+        <v>-0.05072890686775924</v>
       </c>
       <c r="Y3">
-        <v>-0.001815450851564776</v>
+        <v>-0.03868958398269216</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-71.29238990172766</v>
       </c>
       <c r="AA3">
-        <v>-150.1483073878182</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>44.13135103958994</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>95.8867751011438</v>
+        <v>-79.80170209920081</v>
       </c>
       <c r="AD3">
-        <v>95.88677524770611</v>
+        <v>-79.80170145690859</v>
       </c>
       <c r="AE3">
-        <v>95.88677431232119</v>
+        <v>-79.8017014568764</v>
       </c>
       <c r="AF3">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442658</v>
       </c>
       <c r="AG3">
-        <v>0.6337732350778232</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="AH3">
-        <v>0.8677743776472471</v>
+        <v>0.9221519848974011</v>
       </c>
       <c r="AI3">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="AJ3">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="AK3">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="AL3">
-        <v>1.671451765044131</v>
+        <v>-20.89818686211935</v>
       </c>
       <c r="AM3">
-        <v>-103.3712639564099</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN3">
-        <v>91.8732144411657</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO3">
-        <v>1.88688223548469</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP3">
-        <v>-105.1483073878867</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ3">
-        <v>89.13135103973146</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8960,130 +8960,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4109764844045113</v>
       </c>
       <c r="C4">
-        <v>0.862824419281651</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9457031949629575</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.002073606557901659</v>
+        <v>0.003399872338294297</v>
       </c>
       <c r="F4">
-        <v>0.002073606641338591</v>
+        <v>0.003399872346270674</v>
       </c>
       <c r="G4">
-        <v>0.002073606469600127</v>
+        <v>0.003399872346270488</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.745547678031013</v>
       </c>
       <c r="I4">
-        <v>9.963038214712874</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.92003988370706</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02394394608795793</v>
+        <v>0.0392583441944915</v>
       </c>
       <c r="L4">
-        <v>0.02394394705140463</v>
+        <v>0.03925834428659477</v>
       </c>
       <c r="M4">
-        <v>0.02394394506833965</v>
+        <v>0.03925834428659262</v>
       </c>
       <c r="N4">
-        <v>-1.956948985114933E-09</v>
+        <v>-0.8445083533411931</v>
       </c>
       <c r="O4">
-        <v>-3.722329893122662</v>
+        <v>-2.90751124657545E-09</v>
       </c>
       <c r="P4">
-        <v>-4.471772663823227</v>
+        <v>-2.23350858383024E-09</v>
       </c>
       <c r="Q4">
-        <v>-0.002325877769190437</v>
+        <v>0.006314109934432678</v>
       </c>
       <c r="R4">
-        <v>-0.01297747388767729</v>
+        <v>0.03033528209455244</v>
       </c>
       <c r="S4">
-        <v>0.01532623814678579</v>
+        <v>-0.03658786407213332</v>
       </c>
       <c r="T4">
-        <v>1.481196510816397E-10</v>
+        <v>-0.8445083542980681</v>
       </c>
       <c r="U4">
-        <v>-3.722329893390756</v>
+        <v>-1.765797814575588E-09</v>
       </c>
       <c r="V4">
-        <v>-4.471772665488992</v>
+        <v>2.154876545240585E-09</v>
       </c>
       <c r="W4">
-        <v>-0.03326249552096529</v>
+        <v>0.008535930935645607</v>
       </c>
       <c r="X4">
-        <v>0.00499070472619889</v>
+        <v>-0.05072890686777668</v>
       </c>
       <c r="Y4">
-        <v>-0.001815450851564776</v>
+        <v>-0.03868958398268679</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-71.29238990172766</v>
       </c>
       <c r="AA4">
-        <v>-150.1483073878182</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>44.13135103958994</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>95.88677510116635</v>
+        <v>-79.80170209918475</v>
       </c>
       <c r="AD4">
-        <v>95.88677524771741</v>
+        <v>-79.80170145689682</v>
       </c>
       <c r="AE4">
-        <v>95.88677431232119</v>
+        <v>-79.80170145687518</v>
       </c>
       <c r="AF4">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442657</v>
       </c>
       <c r="AG4">
-        <v>0.6337732350778236</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="AH4">
-        <v>0.867774377647247</v>
+        <v>0.9221519848974012</v>
       </c>
       <c r="AI4">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="AJ4">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="AK4">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="AL4">
-        <v>1.671451765044135</v>
+        <v>-20.89818686211941</v>
       </c>
       <c r="AM4">
-        <v>-103.3712639564098</v>
+        <v>-138.9749960592929</v>
       </c>
       <c r="AN4">
-        <v>91.87321444116566</v>
+        <v>145.7805255433176</v>
       </c>
       <c r="AO4">
-        <v>1.88688223548469</v>
+        <v>-26.29238990179093</v>
       </c>
       <c r="AP4">
-        <v>-105.1483073878867</v>
+        <v>-138.9227804480093</v>
       </c>
       <c r="AQ4">
-        <v>89.13135103973146</v>
+        <v>146.7975611245488</v>
       </c>
     </row>
   </sheetData>
@@ -9235,130 +9235,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01501633262181131</v>
+        <v>0.008000161111649157</v>
       </c>
       <c r="C2">
-        <v>0.01501633262734331</v>
+        <v>0.00800016201767729</v>
       </c>
       <c r="D2">
-        <v>0.01501633262734947</v>
+        <v>0.008000160202689495</v>
       </c>
       <c r="E2">
-        <v>0.6517744719190867</v>
+        <v>0.005300048348948055</v>
       </c>
       <c r="F2">
-        <v>0.009812074698393385</v>
+        <v>3.689427380142138</v>
       </c>
       <c r="G2">
-        <v>0.00981207469839598</v>
+        <v>3.737328754729523</v>
       </c>
       <c r="H2">
-        <v>0.1733936736288743</v>
+        <v>0.09237790342742033</v>
       </c>
       <c r="I2">
-        <v>0.1733936736927524</v>
+        <v>0.09237791388933206</v>
       </c>
       <c r="J2">
-        <v>0.1733936736928235</v>
+        <v>0.09237789293165823</v>
       </c>
       <c r="K2">
-        <v>7.526043336268217</v>
+        <v>0.06119968681966383</v>
       </c>
       <c r="L2">
-        <v>0.1133000793685228</v>
+        <v>42.60183782161278</v>
       </c>
       <c r="M2">
-        <v>0.1133000793685527</v>
+        <v>43.15495525186438</v>
       </c>
       <c r="N2">
-        <v>-3.114713019502252E-13</v>
+        <v>0.0005324271185144976</v>
       </c>
       <c r="O2">
-        <v>0.1661175663789741</v>
+        <v>-4.841173360033667E-14</v>
       </c>
       <c r="P2">
-        <v>-0.1642417494074184</v>
+        <v>-4.219198246329297E-14</v>
       </c>
       <c r="Q2">
-        <v>1.235443327595757E-11</v>
+        <v>-3.894411801779471E-05</v>
       </c>
       <c r="R2">
-        <v>-0.1079902317410063</v>
+        <v>7.802906001702377E-11</v>
       </c>
       <c r="S2">
-        <v>0.1078567555206978</v>
+        <v>8.254751354086077E-11</v>
       </c>
       <c r="T2">
-        <v>9.093607781311216E-14</v>
+        <v>-0.1490935465903121</v>
       </c>
       <c r="U2">
-        <v>-0.2626778877456835</v>
+        <v>-8.297209961354363E-14</v>
       </c>
       <c r="V2">
-        <v>-0.2626000242294005</v>
+        <v>7.968410399878093E-14</v>
       </c>
       <c r="W2">
-        <v>-4.835982395678464E-12</v>
+        <v>0.09827864280208969</v>
       </c>
       <c r="X2">
-        <v>0.1698382015119615</v>
+        <v>-4.80190373639968E-11</v>
       </c>
       <c r="Y2">
-        <v>0.1669998753507907</v>
+        <v>3.359259244447917E-11</v>
       </c>
       <c r="Z2">
-        <v>-84.79381555971922</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-170.4493210212929</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>14.85695434131824</v>
       </c>
       <c r="AC2">
-        <v>95.13921755886028</v>
+        <v>-89.81310702801451</v>
       </c>
       <c r="AD2">
-        <v>90.75337969533705</v>
+        <v>9.469467404973022</v>
       </c>
       <c r="AE2">
-        <v>90.75337969539673</v>
+        <v>-165.0644411599965</v>
       </c>
       <c r="AF2">
-        <v>1.034862894271765</v>
+        <v>0.9318218419616013</v>
       </c>
       <c r="AG2">
-        <v>1.100000023842451</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.031318204562458</v>
+        <v>0.9318218419626179</v>
       </c>
       <c r="AI2">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.05810097840181528</v>
       </c>
       <c r="AM2">
-        <v>-147.6772243282247</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>147.9898092982228</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP2">
-        <v>-146.7967131552764</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>147.8970114820788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9366,130 +9366,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.608492552139156</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.971863590859358</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.027772914398423</v>
       </c>
       <c r="E3">
-        <v>0.004906037340876952</v>
+        <v>0.002650024173803555</v>
       </c>
       <c r="F3">
-        <v>0.004906037347953541</v>
+        <v>0.002650024474393969</v>
       </c>
       <c r="G3">
-        <v>0.004906037347954367</v>
+        <v>0.002650023869395167</v>
       </c>
       <c r="H3">
-        <v>7.026266775548482</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>34.31612488354996</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>34.96171014345975</v>
       </c>
       <c r="K3">
-        <v>0.05665003958819329</v>
+        <v>0.03059984340208997</v>
       </c>
       <c r="L3">
-        <v>0.0566500396699067</v>
+        <v>0.03059984687300909</v>
       </c>
       <c r="M3">
-        <v>0.05665003966991623</v>
+        <v>0.03059983988708468</v>
       </c>
       <c r="N3">
-        <v>1.046053724022982E-11</v>
+        <v>-2.916506449088297E-09</v>
       </c>
       <c r="O3">
-        <v>-4.967817767105375E-09</v>
+        <v>6.740758445461162E-11</v>
       </c>
       <c r="P3">
-        <v>-4.760297036969992E-09</v>
+        <v>7.836405582327982E-11</v>
       </c>
       <c r="Q3">
-        <v>-9.550569284837423E-14</v>
+        <v>1.947056967253694E-05</v>
       </c>
       <c r="R3">
-        <v>0.0539951132830508</v>
+        <v>-2.499874296848956E-14</v>
       </c>
       <c r="S3">
-        <v>-0.05392838027735619</v>
+        <v>-3.793566978958493E-14</v>
       </c>
       <c r="T3">
-        <v>-5.000399275945883E-12</v>
+        <v>3.589605116666573E-11</v>
       </c>
       <c r="U3">
-        <v>-3.114413619497955E-09</v>
+        <v>-4.929529953771846E-11</v>
       </c>
       <c r="V3">
-        <v>3.234218701084548E-09</v>
+        <v>2.396896341471977E-11</v>
       </c>
       <c r="W3">
-        <v>2.918330382956589E-14</v>
+        <v>-0.04913932138920244</v>
       </c>
       <c r="X3">
-        <v>-0.08491910237097378</v>
+        <v>-6.087591410594916E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.08349993601979268</v>
+        <v>5.05394197313803E-14</v>
       </c>
       <c r="Z3">
-        <v>-84.79381555971922</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-170.4493210212929</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>14.85695434131824</v>
       </c>
       <c r="AC3">
-        <v>-89.24661917395117</v>
+        <v>90.18689470851835</v>
       </c>
       <c r="AD3">
-        <v>-89.24661856810663</v>
+        <v>90.18689438428864</v>
       </c>
       <c r="AE3">
-        <v>-89.24661856810198</v>
+        <v>90.18689442687683</v>
       </c>
       <c r="AF3">
-        <v>1.015377306145668</v>
+        <v>0.9224887204894726</v>
       </c>
       <c r="AG3">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="AI3">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.3192929610594322</v>
       </c>
       <c r="AM3">
-        <v>-146.043856948557</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>147.6794363569257</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP3">
-        <v>-146.7967131552764</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>147.8970114820788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9497,130 +9497,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.6084925521391535</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.971863590859354</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.027772914398418</v>
       </c>
       <c r="E4">
-        <v>0.004906037340876941</v>
+        <v>0.002650024173803555</v>
       </c>
       <c r="F4">
-        <v>0.004906037347956035</v>
+        <v>0.002650024474392338</v>
       </c>
       <c r="G4">
-        <v>0.004906037347954367</v>
+        <v>0.002650023869395167</v>
       </c>
       <c r="H4">
-        <v>7.026266775548454</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>34.31612488354992</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>34.96171014345968</v>
       </c>
       <c r="K4">
-        <v>0.05665003958819315</v>
+        <v>0.03059984340208997</v>
       </c>
       <c r="L4">
-        <v>0.05665003966993549</v>
+        <v>0.03059984687299026</v>
       </c>
       <c r="M4">
-        <v>0.05665003966991623</v>
+        <v>0.03059983988708468</v>
       </c>
       <c r="N4">
-        <v>1.045928982926053E-11</v>
+        <v>-2.916487612016462E-09</v>
       </c>
       <c r="O4">
-        <v>-4.967811135967957E-09</v>
+        <v>6.742301415480885E-11</v>
       </c>
       <c r="P4">
-        <v>-4.760291960470648E-09</v>
+        <v>7.831995536333834E-11</v>
       </c>
       <c r="Q4">
-        <v>-9.550569284837889E-14</v>
+        <v>1.947056967253694E-05</v>
       </c>
       <c r="R4">
-        <v>0.0539951132830362</v>
+        <v>-2.499874296854969E-14</v>
       </c>
       <c r="S4">
-        <v>-0.05392838027735619</v>
+        <v>-3.793566978958493E-14</v>
       </c>
       <c r="T4">
-        <v>-5.006518351741113E-12</v>
+        <v>3.591129375358257E-11</v>
       </c>
       <c r="U4">
-        <v>-3.114348892609173E-09</v>
+        <v>-4.931128184783788E-11</v>
       </c>
       <c r="V4">
-        <v>3.234196137123576E-09</v>
+        <v>2.389867518238442E-11</v>
       </c>
       <c r="W4">
-        <v>2.918330382954986E-14</v>
+        <v>-0.04913932138920244</v>
       </c>
       <c r="X4">
-        <v>-0.08491910237104366</v>
+        <v>-6.08759141058807E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.08349993601979268</v>
+        <v>5.05394197313803E-14</v>
       </c>
       <c r="Z4">
-        <v>-84.79381555971922</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-170.4493210212929</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>14.85695434131824</v>
       </c>
       <c r="AC4">
-        <v>-89.24661917396077</v>
+        <v>90.18689470851835</v>
       </c>
       <c r="AD4">
-        <v>-89.24661856807828</v>
+        <v>90.18689438435972</v>
       </c>
       <c r="AE4">
-        <v>-89.24661856810198</v>
+        <v>90.18689442687683</v>
       </c>
       <c r="AF4">
-        <v>1.015377306145669</v>
+        <v>0.9224887204894725</v>
       </c>
       <c r="AG4">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="AI4">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.3192929610594648</v>
       </c>
       <c r="AM4">
-        <v>-146.043856948557</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>147.6794363569256</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP4">
-        <v>-146.7967131552764</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>147.8970114820788</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9772,130 +9772,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01501633262181131</v>
+        <v>0.008000161111649157</v>
       </c>
       <c r="C2">
-        <v>0.01501633262734331</v>
+        <v>0.00800016201767729</v>
       </c>
       <c r="D2">
-        <v>0.01501633262734947</v>
+        <v>0.008000160202689495</v>
       </c>
       <c r="E2">
-        <v>0.6517744719190867</v>
+        <v>0.005300048348948055</v>
       </c>
       <c r="F2">
-        <v>0.009812074698393385</v>
+        <v>3.689427380142138</v>
       </c>
       <c r="G2">
-        <v>0.00981207469839598</v>
+        <v>3.737328754729523</v>
       </c>
       <c r="H2">
-        <v>0.1733936736288743</v>
+        <v>0.09237790342742033</v>
       </c>
       <c r="I2">
-        <v>0.1733936736927524</v>
+        <v>0.09237791388933206</v>
       </c>
       <c r="J2">
-        <v>0.1733936736928235</v>
+        <v>0.09237789293165823</v>
       </c>
       <c r="K2">
-        <v>7.526043336268217</v>
+        <v>0.06119968681966383</v>
       </c>
       <c r="L2">
-        <v>0.1133000793685228</v>
+        <v>42.60183782161278</v>
       </c>
       <c r="M2">
-        <v>0.1133000793685527</v>
+        <v>43.15495525186438</v>
       </c>
       <c r="N2">
-        <v>-3.114713019502252E-13</v>
+        <v>0.0005324271185144976</v>
       </c>
       <c r="O2">
-        <v>0.1661175663789741</v>
+        <v>-4.841173360033667E-14</v>
       </c>
       <c r="P2">
-        <v>-0.1642417494074184</v>
+        <v>-4.219198246329297E-14</v>
       </c>
       <c r="Q2">
-        <v>1.235443327595757E-11</v>
+        <v>-3.894411801779471E-05</v>
       </c>
       <c r="R2">
-        <v>-0.1079902317410063</v>
+        <v>7.802906001702377E-11</v>
       </c>
       <c r="S2">
-        <v>0.1078567555206978</v>
+        <v>8.254751354086077E-11</v>
       </c>
       <c r="T2">
-        <v>9.093607781311216E-14</v>
+        <v>-0.1490935465903121</v>
       </c>
       <c r="U2">
-        <v>-0.2626778877456835</v>
+        <v>-8.297209961354363E-14</v>
       </c>
       <c r="V2">
-        <v>-0.2626000242294005</v>
+        <v>7.968410399878093E-14</v>
       </c>
       <c r="W2">
-        <v>-4.835982395678464E-12</v>
+        <v>0.09827864280208969</v>
       </c>
       <c r="X2">
-        <v>0.1698382015119615</v>
+        <v>-4.80190373639968E-11</v>
       </c>
       <c r="Y2">
-        <v>0.1669998753507907</v>
+        <v>3.359259244447917E-11</v>
       </c>
       <c r="Z2">
-        <v>-84.79381555971922</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-170.4493210212929</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>14.85695434131824</v>
       </c>
       <c r="AC2">
-        <v>95.13921755886028</v>
+        <v>-89.81310702801451</v>
       </c>
       <c r="AD2">
-        <v>90.75337969533705</v>
+        <v>9.469467404973022</v>
       </c>
       <c r="AE2">
-        <v>90.75337969539673</v>
+        <v>-165.0644411599965</v>
       </c>
       <c r="AF2">
-        <v>1.034862894271765</v>
+        <v>0.9318218419616013</v>
       </c>
       <c r="AG2">
-        <v>1.100000023842451</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.031318204562458</v>
+        <v>0.9318218419626179</v>
       </c>
       <c r="AI2">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.05810097840181528</v>
       </c>
       <c r="AM2">
-        <v>-147.6772243282247</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>147.9898092982228</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP2">
-        <v>-146.7967131552764</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>147.8970114820788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9903,130 +9903,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.608492552139156</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.971863590859358</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.027772914398423</v>
       </c>
       <c r="E3">
-        <v>0.004906037340876952</v>
+        <v>0.002650024173803555</v>
       </c>
       <c r="F3">
-        <v>0.004906037347953541</v>
+        <v>0.002650024474393969</v>
       </c>
       <c r="G3">
-        <v>0.004906037347954367</v>
+        <v>0.002650023869395167</v>
       </c>
       <c r="H3">
-        <v>7.026266775548482</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>34.31612488354996</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>34.96171014345975</v>
       </c>
       <c r="K3">
-        <v>0.05665003958819329</v>
+        <v>0.03059984340208997</v>
       </c>
       <c r="L3">
-        <v>0.0566500396699067</v>
+        <v>0.03059984687300909</v>
       </c>
       <c r="M3">
-        <v>0.05665003966991623</v>
+        <v>0.03059983988708468</v>
       </c>
       <c r="N3">
-        <v>1.046053724022982E-11</v>
+        <v>-2.916506449088297E-09</v>
       </c>
       <c r="O3">
-        <v>-4.967817767105375E-09</v>
+        <v>6.740758445461162E-11</v>
       </c>
       <c r="P3">
-        <v>-4.760297036969992E-09</v>
+        <v>7.836405582327982E-11</v>
       </c>
       <c r="Q3">
-        <v>-9.550569284837423E-14</v>
+        <v>1.947056967253694E-05</v>
       </c>
       <c r="R3">
-        <v>0.0539951132830508</v>
+        <v>-2.499874296848956E-14</v>
       </c>
       <c r="S3">
-        <v>-0.05392838027735619</v>
+        <v>-3.793566978958493E-14</v>
       </c>
       <c r="T3">
-        <v>-5.000399275945883E-12</v>
+        <v>3.589605116666573E-11</v>
       </c>
       <c r="U3">
-        <v>-3.114413619497955E-09</v>
+        <v>-4.929529953771846E-11</v>
       </c>
       <c r="V3">
-        <v>3.234218701084548E-09</v>
+        <v>2.396896341471977E-11</v>
       </c>
       <c r="W3">
-        <v>2.918330382956589E-14</v>
+        <v>-0.04913932138920244</v>
       </c>
       <c r="X3">
-        <v>-0.08491910237097378</v>
+        <v>-6.087591410594916E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.08349993601979268</v>
+        <v>5.05394197313803E-14</v>
       </c>
       <c r="Z3">
-        <v>-84.79381555971922</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-170.4493210212929</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>14.85695434131824</v>
       </c>
       <c r="AC3">
-        <v>-89.24661917395117</v>
+        <v>90.18689470851835</v>
       </c>
       <c r="AD3">
-        <v>-89.24661856810663</v>
+        <v>90.18689438428864</v>
       </c>
       <c r="AE3">
-        <v>-89.24661856810198</v>
+        <v>90.18689442687683</v>
       </c>
       <c r="AF3">
-        <v>1.015377306145668</v>
+        <v>0.9224887204894726</v>
       </c>
       <c r="AG3">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="AI3">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.3192929610594322</v>
       </c>
       <c r="AM3">
-        <v>-146.043856948557</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>147.6794363569257</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP3">
-        <v>-146.7967131552764</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>147.8970114820788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10034,130 +10034,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.6084925521391535</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.971863590859354</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.027772914398418</v>
       </c>
       <c r="E4">
-        <v>0.004906037340876941</v>
+        <v>0.002650024173803555</v>
       </c>
       <c r="F4">
-        <v>0.004906037347956035</v>
+        <v>0.002650024474392338</v>
       </c>
       <c r="G4">
-        <v>0.004906037347954367</v>
+        <v>0.002650023869395167</v>
       </c>
       <c r="H4">
-        <v>7.026266775548454</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>34.31612488354992</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>34.96171014345968</v>
       </c>
       <c r="K4">
-        <v>0.05665003958819315</v>
+        <v>0.03059984340208997</v>
       </c>
       <c r="L4">
-        <v>0.05665003966993549</v>
+        <v>0.03059984687299026</v>
       </c>
       <c r="M4">
-        <v>0.05665003966991623</v>
+        <v>0.03059983988708468</v>
       </c>
       <c r="N4">
-        <v>1.045928982926053E-11</v>
+        <v>-2.916487612016462E-09</v>
       </c>
       <c r="O4">
-        <v>-4.967811135967957E-09</v>
+        <v>6.742301415480885E-11</v>
       </c>
       <c r="P4">
-        <v>-4.760291960470648E-09</v>
+        <v>7.831995536333834E-11</v>
       </c>
       <c r="Q4">
-        <v>-9.550569284837889E-14</v>
+        <v>1.947056967253694E-05</v>
       </c>
       <c r="R4">
-        <v>0.0539951132830362</v>
+        <v>-2.499874296854969E-14</v>
       </c>
       <c r="S4">
-        <v>-0.05392838027735619</v>
+        <v>-3.793566978958493E-14</v>
       </c>
       <c r="T4">
-        <v>-5.006518351741113E-12</v>
+        <v>3.591129375358257E-11</v>
       </c>
       <c r="U4">
-        <v>-3.114348892609173E-09</v>
+        <v>-4.931128184783788E-11</v>
       </c>
       <c r="V4">
-        <v>3.234196137123576E-09</v>
+        <v>2.389867518238442E-11</v>
       </c>
       <c r="W4">
-        <v>2.918330382954986E-14</v>
+        <v>-0.04913932138920244</v>
       </c>
       <c r="X4">
-        <v>-0.08491910237104366</v>
+        <v>-6.08759141058807E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.08349993601979268</v>
+        <v>5.05394197313803E-14</v>
       </c>
       <c r="Z4">
-        <v>-84.79381555971922</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-170.4493210212929</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>14.85695434131824</v>
       </c>
       <c r="AC4">
-        <v>-89.24661917396077</v>
+        <v>90.18689470851835</v>
       </c>
       <c r="AD4">
-        <v>-89.24661856807828</v>
+        <v>90.18689438435972</v>
       </c>
       <c r="AE4">
-        <v>-89.24661856810198</v>
+        <v>90.18689442687683</v>
       </c>
       <c r="AF4">
-        <v>1.015377306145669</v>
+        <v>0.9224887204894725</v>
       </c>
       <c r="AG4">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="AI4">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.3192929610594648</v>
       </c>
       <c r="AM4">
-        <v>-146.043856948557</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>147.6794363569256</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.2095971264030684</v>
       </c>
       <c r="AP4">
-        <v>-146.7967131552764</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>147.8970114820788</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10309,130 +10309,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01159637832285328</v>
+        <v>0.006951505608221835</v>
       </c>
       <c r="C2">
-        <v>0.01159637832712408</v>
+        <v>0.006951505819505535</v>
       </c>
       <c r="D2">
-        <v>0.01159637832712494</v>
+        <v>0.006951505394391481</v>
       </c>
       <c r="E2">
-        <v>0.5033121591567267</v>
+        <v>0.004593182332151335</v>
       </c>
       <c r="F2">
-        <v>0.007577063409241611</v>
+        <v>1.078619501605515</v>
       </c>
       <c r="G2">
-        <v>0.007577063409245259</v>
+        <v>1.207248425610281</v>
       </c>
       <c r="H2">
-        <v>0.1339034429264817</v>
+        <v>0.08026907268360139</v>
       </c>
       <c r="I2">
-        <v>0.1339034429757966</v>
+        <v>0.08026907512329542</v>
       </c>
       <c r="J2">
-        <v>0.1339034429758065</v>
+        <v>0.08026907021450115</v>
       </c>
       <c r="K2">
-        <v>5.811748211510959</v>
+        <v>0.05303750111809213</v>
       </c>
       <c r="L2">
-        <v>0.08749239197985015</v>
+        <v>12.45482519210248</v>
       </c>
       <c r="M2">
-        <v>0.08749239197989228</v>
+        <v>13.94010407009695</v>
       </c>
       <c r="N2">
-        <v>0.03018375914143179</v>
+        <v>-0.01044442310628627</v>
       </c>
       <c r="O2">
-        <v>0.1103157169083971</v>
+        <v>-0.05257468435852809</v>
       </c>
       <c r="P2">
-        <v>-0.1393807922555644</v>
+        <v>0.06342109920152511</v>
       </c>
       <c r="Q2">
-        <v>-1.246145154450916</v>
+        <v>0.006315928537964022</v>
       </c>
       <c r="R2">
-        <v>-0.07324268945258468</v>
+        <v>-5.803171563359276</v>
       </c>
       <c r="S2">
-        <v>0.0904301486292519</v>
+        <v>-7.293544544324773</v>
       </c>
       <c r="T2">
-        <v>0.03041456889841441</v>
+        <v>-0.1234984429175771</v>
       </c>
       <c r="U2">
-        <v>-0.19800083266737</v>
+        <v>0.02317304829632131</v>
       </c>
       <c r="V2">
-        <v>-0.1456745922053452</v>
+        <v>-0.01224368715072716</v>
       </c>
       <c r="W2">
-        <v>-1.249061534829634</v>
+        <v>0.08122884907759696</v>
       </c>
       <c r="X2">
-        <v>0.1263235214913513</v>
+        <v>-5.849244308703876</v>
       </c>
       <c r="Y2">
-        <v>0.09472355322892875</v>
+        <v>-7.248543496355055</v>
       </c>
       <c r="Z2">
-        <v>-74.61967178305957</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-151.7945368003599</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>41.98237153990289</v>
       </c>
       <c r="AC2">
-        <v>105.3133613355198</v>
+        <v>-83.59321812540396</v>
       </c>
       <c r="AD2">
-        <v>100.9275234719938</v>
+        <v>27.97892132798867</v>
       </c>
       <c r="AE2">
-        <v>100.9275234720548</v>
+        <v>-137.8403250435261</v>
       </c>
       <c r="AF2">
-        <v>1.043702907371753</v>
+        <v>1.097621028582164</v>
       </c>
       <c r="AG2">
-        <v>1.100000023842581</v>
+        <v>0.8723446855797308</v>
       </c>
       <c r="AH2">
-        <v>1.054025734328035</v>
+        <v>0.9605330069427555</v>
       </c>
       <c r="AI2">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="AJ2">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="AK2">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="AL2">
-        <v>-32.94617420944358</v>
+        <v>2.093795107445995</v>
       </c>
       <c r="AM2">
-        <v>-139.0401364232156</v>
+        <v>-106.8583055569838</v>
       </c>
       <c r="AN2">
-        <v>148.1004369773258</v>
+        <v>86.00112104239247</v>
       </c>
       <c r="AO2">
-        <v>-29.61967178281942</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP2">
-        <v>-138.9672129624686</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ2">
-        <v>147.2558786972415</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10440,130 +10440,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4714994675461401</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.004677086982775</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.111444801237842</v>
       </c>
       <c r="E3">
-        <v>0.003788531698197654</v>
+        <v>0.002296591165495993</v>
       </c>
       <c r="F3">
-        <v>0.003788531703657876</v>
+        <v>0.002296591252372306</v>
       </c>
       <c r="G3">
-        <v>0.003788531703661488</v>
+        <v>0.002296591075307031</v>
       </c>
       <c r="H3">
-        <v>5.444406890210584</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.60101173236308</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.83385910368157</v>
       </c>
       <c r="K3">
-        <v>0.04374619591575691</v>
+        <v>0.02651875055235256</v>
       </c>
       <c r="L3">
-        <v>0.04374619597880613</v>
+        <v>0.02651875155551381</v>
       </c>
       <c r="M3">
-        <v>0.04374619597884782</v>
+        <v>0.02651874951094013</v>
       </c>
       <c r="N3">
-        <v>-1.111558738950429</v>
+        <v>-2.410094794086412E-09</v>
       </c>
       <c r="O3">
-        <v>-3.67178977728931E-09</v>
+        <v>-5.046880246097428</v>
       </c>
       <c r="P3">
-        <v>-2.76096683890977E-09</v>
+        <v>-6.176547729510823</v>
       </c>
       <c r="Q3">
-        <v>0.00863352711378226</v>
+        <v>-0.003157965499166904</v>
       </c>
       <c r="R3">
-        <v>0.03662134280266105</v>
+        <v>-0.01612482405328784</v>
       </c>
       <c r="S3">
-        <v>-0.0452150757385751</v>
+        <v>0.01929741161594127</v>
       </c>
       <c r="T3">
-        <v>-1.111558740218828</v>
+        <v>1.970039044236998E-10</v>
       </c>
       <c r="U3">
-        <v>-2.155504886845726E-09</v>
+        <v>-5.046880246583671</v>
       </c>
       <c r="V3">
-        <v>2.681419979225611E-09</v>
+        <v>-6.17654773162051</v>
       </c>
       <c r="W3">
-        <v>0.01009171663208383</v>
+        <v>-0.04061442443283243</v>
       </c>
       <c r="X3">
-        <v>-0.06316176183955119</v>
+        <v>0.006911548411385446</v>
       </c>
       <c r="Y3">
-        <v>-0.04736177523208997</v>
+        <v>-0.003203113442344691</v>
       </c>
       <c r="Z3">
-        <v>-74.61967178305957</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-151.7945368003599</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>41.98237153990289</v>
       </c>
       <c r="AC3">
-        <v>-79.07247539728115</v>
+        <v>96.40678361116568</v>
       </c>
       <c r="AD3">
-        <v>-79.07247479146336</v>
+        <v>96.40678397693914</v>
       </c>
       <c r="AE3">
-        <v>-79.07247479144232</v>
+        <v>96.40678263953386</v>
       </c>
       <c r="AF3">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="AG3">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="AH3">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="AI3">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="AJ3">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="AK3">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="AL3">
-        <v>-26.82362012912552</v>
+        <v>1.830495021156142</v>
       </c>
       <c r="AM3">
-        <v>-138.9206046425662</v>
+        <v>-106.7445086067049</v>
       </c>
       <c r="AN3">
-        <v>146.5021525771005</v>
+        <v>87.83273417355092</v>
       </c>
       <c r="AO3">
-        <v>-29.61967178281942</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP3">
-        <v>-138.9672129624686</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ3">
-        <v>147.2558786972415</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10571,130 +10571,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4714994675461409</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.004677086982774</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.111444801237842</v>
       </c>
       <c r="E4">
-        <v>0.003788531698195888</v>
+        <v>0.002296591165495948</v>
       </c>
       <c r="F4">
-        <v>0.003788531703662124</v>
+        <v>0.002296591252372306</v>
       </c>
       <c r="G4">
-        <v>0.003788531703661488</v>
+        <v>0.002296591075307076</v>
       </c>
       <c r="H4">
-        <v>5.444406890210594</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.60101173236307</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.83385910368157</v>
       </c>
       <c r="K4">
-        <v>0.04374619591573652</v>
+        <v>0.02651875055235204</v>
       </c>
       <c r="L4">
-        <v>0.04374619597885517</v>
+        <v>0.02651875155551381</v>
       </c>
       <c r="M4">
-        <v>0.04374619597884782</v>
+        <v>0.02651874951094066</v>
       </c>
       <c r="N4">
-        <v>-1.111558738950436</v>
+        <v>-2.410097298341552E-09</v>
       </c>
       <c r="O4">
-        <v>-3.671814372886968E-09</v>
+        <v>-5.046880246097414</v>
       </c>
       <c r="P4">
-        <v>-2.760974628787355E-09</v>
+        <v>-6.176547729510812</v>
       </c>
       <c r="Q4">
-        <v>0.008633527113776917</v>
+        <v>-0.003157965499159632</v>
       </c>
       <c r="R4">
-        <v>0.03662134280266006</v>
+        <v>-0.01612482405328784</v>
       </c>
       <c r="S4">
-        <v>-0.0452150757385751</v>
+        <v>0.01929741161594108</v>
       </c>
       <c r="T4">
-        <v>-1.111558740218828</v>
+        <v>1.970255674844851E-10</v>
       </c>
       <c r="U4">
-        <v>-2.155500434450823E-09</v>
+        <v>-5.046880246583688</v>
       </c>
       <c r="V4">
-        <v>2.681408209043645E-09</v>
+        <v>-6.176547731620504</v>
       </c>
       <c r="W4">
-        <v>0.01009171663208025</v>
+        <v>-0.04061442443283218</v>
       </c>
       <c r="X4">
-        <v>-0.06316176183964638</v>
+        <v>0.006911548411385446</v>
       </c>
       <c r="Y4">
-        <v>-0.04736177523208997</v>
+        <v>-0.003203113442348181</v>
       </c>
       <c r="Z4">
-        <v>-74.61967178305957</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-151.7945368003599</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>41.98237153990289</v>
       </c>
       <c r="AC4">
-        <v>-79.07247539728864</v>
+        <v>96.40678361115549</v>
       </c>
       <c r="AD4">
-        <v>-79.07247479142522</v>
+        <v>96.40678397693914</v>
       </c>
       <c r="AE4">
-        <v>-79.07247479144232</v>
+        <v>96.40678263954403</v>
       </c>
       <c r="AF4">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="AG4">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="AH4">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="AI4">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="AJ4">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="AK4">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="AL4">
-        <v>-26.82362012912548</v>
+        <v>1.830495021156094</v>
       </c>
       <c r="AM4">
-        <v>-138.9206046425662</v>
+        <v>-106.7445086067047</v>
       </c>
       <c r="AN4">
-        <v>146.5021525771005</v>
+        <v>87.83273417355086</v>
       </c>
       <c r="AO4">
-        <v>-29.61967178281942</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP4">
-        <v>-138.9672129624686</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ4">
-        <v>147.2558786972415</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
   </sheetData>
@@ -10846,130 +10846,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01159637832285328</v>
+        <v>0.006951505608221835</v>
       </c>
       <c r="C2">
-        <v>0.01159637832712408</v>
+        <v>0.006951505819505535</v>
       </c>
       <c r="D2">
-        <v>0.01159637832712494</v>
+        <v>0.006951505394391481</v>
       </c>
       <c r="E2">
-        <v>0.5033121591567267</v>
+        <v>0.004593182332151335</v>
       </c>
       <c r="F2">
-        <v>0.007577063409241611</v>
+        <v>1.078619501605515</v>
       </c>
       <c r="G2">
-        <v>0.007577063409245259</v>
+        <v>1.207248425610281</v>
       </c>
       <c r="H2">
-        <v>0.1339034429264817</v>
+        <v>0.08026907268360139</v>
       </c>
       <c r="I2">
-        <v>0.1339034429757966</v>
+        <v>0.08026907512329542</v>
       </c>
       <c r="J2">
-        <v>0.1339034429758065</v>
+        <v>0.08026907021450115</v>
       </c>
       <c r="K2">
-        <v>5.811748211510959</v>
+        <v>0.05303750111809213</v>
       </c>
       <c r="L2">
-        <v>0.08749239197985015</v>
+        <v>12.45482519210248</v>
       </c>
       <c r="M2">
-        <v>0.08749239197989228</v>
+        <v>13.94010407009695</v>
       </c>
       <c r="N2">
-        <v>0.03018375914143179</v>
+        <v>-0.01044442310628627</v>
       </c>
       <c r="O2">
-        <v>0.1103157169083971</v>
+        <v>-0.05257468435852809</v>
       </c>
       <c r="P2">
-        <v>-0.1393807922555644</v>
+        <v>0.06342109920152511</v>
       </c>
       <c r="Q2">
-        <v>-1.246145154450916</v>
+        <v>0.006315928537964022</v>
       </c>
       <c r="R2">
-        <v>-0.07324268945258468</v>
+        <v>-5.803171563359276</v>
       </c>
       <c r="S2">
-        <v>0.0904301486292519</v>
+        <v>-7.293544544324773</v>
       </c>
       <c r="T2">
-        <v>0.03041456889841441</v>
+        <v>-0.1234984429175771</v>
       </c>
       <c r="U2">
-        <v>-0.19800083266737</v>
+        <v>0.02317304829632131</v>
       </c>
       <c r="V2">
-        <v>-0.1456745922053452</v>
+        <v>-0.01224368715072716</v>
       </c>
       <c r="W2">
-        <v>-1.249061534829634</v>
+        <v>0.08122884907759696</v>
       </c>
       <c r="X2">
-        <v>0.1263235214913513</v>
+        <v>-5.849244308703876</v>
       </c>
       <c r="Y2">
-        <v>0.09472355322892875</v>
+        <v>-7.248543496355055</v>
       </c>
       <c r="Z2">
-        <v>-74.61967178305957</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-151.7945368003599</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>41.98237153990289</v>
       </c>
       <c r="AC2">
-        <v>105.3133613355198</v>
+        <v>-83.59321812540396</v>
       </c>
       <c r="AD2">
-        <v>100.9275234719938</v>
+        <v>27.97892132798867</v>
       </c>
       <c r="AE2">
-        <v>100.9275234720548</v>
+        <v>-137.8403250435261</v>
       </c>
       <c r="AF2">
-        <v>1.043702907371753</v>
+        <v>1.097621028582164</v>
       </c>
       <c r="AG2">
-        <v>1.100000023842581</v>
+        <v>0.8723446855797308</v>
       </c>
       <c r="AH2">
-        <v>1.054025734328035</v>
+        <v>0.9605330069427555</v>
       </c>
       <c r="AI2">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="AJ2">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="AK2">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="AL2">
-        <v>-32.94617420944358</v>
+        <v>2.093795107445995</v>
       </c>
       <c r="AM2">
-        <v>-139.0401364232156</v>
+        <v>-106.8583055569838</v>
       </c>
       <c r="AN2">
-        <v>148.1004369773258</v>
+        <v>86.00112104239247</v>
       </c>
       <c r="AO2">
-        <v>-29.61967178281942</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP2">
-        <v>-138.9672129624686</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ2">
-        <v>147.2558786972415</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10977,130 +10977,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4714994675461401</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.004677086982775</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.111444801237842</v>
       </c>
       <c r="E3">
-        <v>0.003788531698197654</v>
+        <v>0.002296591165495993</v>
       </c>
       <c r="F3">
-        <v>0.003788531703657876</v>
+        <v>0.002296591252372306</v>
       </c>
       <c r="G3">
-        <v>0.003788531703661488</v>
+        <v>0.002296591075307031</v>
       </c>
       <c r="H3">
-        <v>5.444406890210584</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.60101173236308</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.83385910368157</v>
       </c>
       <c r="K3">
-        <v>0.04374619591575691</v>
+        <v>0.02651875055235256</v>
       </c>
       <c r="L3">
-        <v>0.04374619597880613</v>
+        <v>0.02651875155551381</v>
       </c>
       <c r="M3">
-        <v>0.04374619597884782</v>
+        <v>0.02651874951094013</v>
       </c>
       <c r="N3">
-        <v>-1.111558738950429</v>
+        <v>-2.410094794086412E-09</v>
       </c>
       <c r="O3">
-        <v>-3.67178977728931E-09</v>
+        <v>-5.046880246097428</v>
       </c>
       <c r="P3">
-        <v>-2.76096683890977E-09</v>
+        <v>-6.176547729510823</v>
       </c>
       <c r="Q3">
-        <v>0.00863352711378226</v>
+        <v>-0.003157965499166904</v>
       </c>
       <c r="R3">
-        <v>0.03662134280266105</v>
+        <v>-0.01612482405328784</v>
       </c>
       <c r="S3">
-        <v>-0.0452150757385751</v>
+        <v>0.01929741161594127</v>
       </c>
       <c r="T3">
-        <v>-1.111558740218828</v>
+        <v>1.970039044236998E-10</v>
       </c>
       <c r="U3">
-        <v>-2.155504886845726E-09</v>
+        <v>-5.046880246583671</v>
       </c>
       <c r="V3">
-        <v>2.681419979225611E-09</v>
+        <v>-6.17654773162051</v>
       </c>
       <c r="W3">
-        <v>0.01009171663208383</v>
+        <v>-0.04061442443283243</v>
       </c>
       <c r="X3">
-        <v>-0.06316176183955119</v>
+        <v>0.006911548411385446</v>
       </c>
       <c r="Y3">
-        <v>-0.04736177523208997</v>
+        <v>-0.003203113442344691</v>
       </c>
       <c r="Z3">
-        <v>-74.61967178305957</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-151.7945368003599</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>41.98237153990289</v>
       </c>
       <c r="AC3">
-        <v>-79.07247539728115</v>
+        <v>96.40678361116568</v>
       </c>
       <c r="AD3">
-        <v>-79.07247479146336</v>
+        <v>96.40678397693914</v>
       </c>
       <c r="AE3">
-        <v>-79.07247479144232</v>
+        <v>96.40678263953386</v>
       </c>
       <c r="AF3">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="AG3">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="AH3">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="AI3">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="AJ3">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="AK3">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="AL3">
-        <v>-26.82362012912552</v>
+        <v>1.830495021156142</v>
       </c>
       <c r="AM3">
-        <v>-138.9206046425662</v>
+        <v>-106.7445086067049</v>
       </c>
       <c r="AN3">
-        <v>146.5021525771005</v>
+        <v>87.83273417355092</v>
       </c>
       <c r="AO3">
-        <v>-29.61967178281942</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP3">
-        <v>-138.9672129624686</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ3">
-        <v>147.2558786972415</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11108,130 +11108,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4714994675461409</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.004677086982774</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.111444801237842</v>
       </c>
       <c r="E4">
-        <v>0.003788531698195888</v>
+        <v>0.002296591165495948</v>
       </c>
       <c r="F4">
-        <v>0.003788531703662124</v>
+        <v>0.002296591252372306</v>
       </c>
       <c r="G4">
-        <v>0.003788531703661488</v>
+        <v>0.002296591075307076</v>
       </c>
       <c r="H4">
-        <v>5.444406890210594</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.60101173236307</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.83385910368157</v>
       </c>
       <c r="K4">
-        <v>0.04374619591573652</v>
+        <v>0.02651875055235204</v>
       </c>
       <c r="L4">
-        <v>0.04374619597885517</v>
+        <v>0.02651875155551381</v>
       </c>
       <c r="M4">
-        <v>0.04374619597884782</v>
+        <v>0.02651874951094066</v>
       </c>
       <c r="N4">
-        <v>-1.111558738950436</v>
+        <v>-2.410097298341552E-09</v>
       </c>
       <c r="O4">
-        <v>-3.671814372886968E-09</v>
+        <v>-5.046880246097414</v>
       </c>
       <c r="P4">
-        <v>-2.760974628787355E-09</v>
+        <v>-6.176547729510812</v>
       </c>
       <c r="Q4">
-        <v>0.008633527113776917</v>
+        <v>-0.003157965499159632</v>
       </c>
       <c r="R4">
-        <v>0.03662134280266006</v>
+        <v>-0.01612482405328784</v>
       </c>
       <c r="S4">
-        <v>-0.0452150757385751</v>
+        <v>0.01929741161594108</v>
       </c>
       <c r="T4">
-        <v>-1.111558740218828</v>
+        <v>1.970255674844851E-10</v>
       </c>
       <c r="U4">
-        <v>-2.155500434450823E-09</v>
+        <v>-5.046880246583688</v>
       </c>
       <c r="V4">
-        <v>2.681408209043645E-09</v>
+        <v>-6.176547731620504</v>
       </c>
       <c r="W4">
-        <v>0.01009171663208025</v>
+        <v>-0.04061442443283218</v>
       </c>
       <c r="X4">
-        <v>-0.06316176183964638</v>
+        <v>0.006911548411385446</v>
       </c>
       <c r="Y4">
-        <v>-0.04736177523208997</v>
+        <v>-0.003203113442348181</v>
       </c>
       <c r="Z4">
-        <v>-74.61967178305957</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-151.7945368003599</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>41.98237153990289</v>
       </c>
       <c r="AC4">
-        <v>-79.07247539728864</v>
+        <v>96.40678361115549</v>
       </c>
       <c r="AD4">
-        <v>-79.07247479142522</v>
+        <v>96.40678397693914</v>
       </c>
       <c r="AE4">
-        <v>-79.07247479144232</v>
+        <v>96.40678263954403</v>
       </c>
       <c r="AF4">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="AG4">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="AH4">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="AI4">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="AJ4">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="AK4">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="AL4">
-        <v>-26.82362012912548</v>
+        <v>1.830495021156094</v>
       </c>
       <c r="AM4">
-        <v>-138.9206046425662</v>
+        <v>-106.7445086067047</v>
       </c>
       <c r="AN4">
-        <v>146.5021525771005</v>
+        <v>87.83273417355086</v>
       </c>
       <c r="AO4">
-        <v>-29.61967178281942</v>
+        <v>1.960708708536004</v>
       </c>
       <c r="AP4">
-        <v>-138.9672129624686</v>
+        <v>-106.7945368002055</v>
       </c>
       <c r="AQ4">
-        <v>147.2558786972415</v>
+        <v>86.98237154000461</v>
       </c>
     </row>
   </sheetData>
@@ -11383,130 +11383,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01359901718817787</v>
+        <v>0.007265317358306065</v>
       </c>
       <c r="C2">
-        <v>0.01359901719311509</v>
+        <v>0.007265318181969523</v>
       </c>
       <c r="D2">
-        <v>0.01359901719311754</v>
+        <v>0.007265316532006028</v>
       </c>
       <c r="E2">
-        <v>0.5846199791874934</v>
+        <v>0.004810448124427467</v>
       </c>
       <c r="F2">
-        <v>0.00886604010896133</v>
+        <v>3.090256703396253</v>
       </c>
       <c r="G2">
-        <v>0.008866040108965124</v>
+        <v>3.155873014208164</v>
       </c>
       <c r="H2">
-        <v>0.1570279246861769</v>
+        <v>0.08389265865132134</v>
       </c>
       <c r="I2">
-        <v>0.157027924743187</v>
+        <v>0.08389266816216774</v>
       </c>
       <c r="J2">
-        <v>0.1570279247432153</v>
+        <v>0.08389264911003037</v>
       </c>
       <c r="K2">
-        <v>6.750610047150655</v>
+        <v>0.05554627039121857</v>
       </c>
       <c r="L2">
-        <v>0.1023762128710969</v>
+        <v>35.68321079141744</v>
       </c>
       <c r="M2">
-        <v>0.1023762128711407</v>
+        <v>36.44088268562719</v>
       </c>
       <c r="N2">
-        <v>1.232190438825657E-13</v>
+        <v>0.0008430801221285248</v>
       </c>
       <c r="O2">
-        <v>0.1374665114469373</v>
+        <v>-7.951282592892586E-14</v>
       </c>
       <c r="P2">
-        <v>-0.1345127547705528</v>
+        <v>8.500210675133628E-14</v>
       </c>
       <c r="Q2">
-        <v>-5.586143717182451E-12</v>
+        <v>-6.158945624980521E-05</v>
       </c>
       <c r="R2">
-        <v>-0.08874517741560115</v>
+        <v>-1.352121944060203E-10</v>
       </c>
       <c r="S2">
-        <v>0.08853596151816689</v>
+        <v>2.969133435855659E-11</v>
       </c>
       <c r="T2">
-        <v>1.028219854269026E-13</v>
+        <v>-0.1229627807283842</v>
       </c>
       <c r="U2">
-        <v>-0.2150190914449636</v>
+        <v>4.967853633084755E-14</v>
       </c>
       <c r="V2">
-        <v>-0.2157847254316775</v>
+        <v>4.165475370633771E-14</v>
       </c>
       <c r="W2">
-        <v>-3.187798115015174E-12</v>
+        <v>0.08096004513974354</v>
       </c>
       <c r="X2">
-        <v>0.1393834902058716</v>
+        <v>-1.361305752859909E-10</v>
       </c>
       <c r="Y2">
-        <v>0.1356332016967295</v>
+        <v>-1.940425084799108E-10</v>
       </c>
       <c r="Z2">
-        <v>-80.27880562926023</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-162.5102440701155</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>23.10948337003605</v>
       </c>
       <c r="AC2">
-        <v>99.59262033998461</v>
+        <v>-89.70302262459739</v>
       </c>
       <c r="AD2">
-        <v>91.21188108505517</v>
+        <v>17.40455178455316</v>
       </c>
       <c r="AE2">
-        <v>91.21188108508646</v>
+        <v>-156.8100130283359</v>
       </c>
       <c r="AF2">
-        <v>0.9383262346624903</v>
+        <v>0.8462512019154312</v>
       </c>
       <c r="AG2">
-        <v>1.000000000000685</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9349090119114009</v>
+        <v>0.8462512019153683</v>
       </c>
       <c r="AI2">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="AJ2">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.06185191722406379</v>
       </c>
       <c r="AM2">
-        <v>-147.5695994122703</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>147.900719969754</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP2">
-        <v>-146.3032964867996</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>148.0769760730098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11514,130 +11514,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5336417767187513</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.365362558187219</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.438396203867715</v>
       </c>
       <c r="E3">
-        <v>0.004433020042241193</v>
+        <v>0.002405224061214129</v>
       </c>
       <c r="F3">
-        <v>0.004433020052641089</v>
+        <v>0.002405224333387743</v>
       </c>
       <c r="G3">
-        <v>0.004433020052640944</v>
+        <v>0.002405223783397441</v>
       </c>
       <c r="H3">
-        <v>6.161964468788026</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.31285419400905</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>28.15617409387974</v>
       </c>
       <c r="K3">
-        <v>0.05118810629421917</v>
+        <v>0.02777313518406685</v>
       </c>
       <c r="L3">
-        <v>0.05118810641430684</v>
+        <v>0.02777313832685703</v>
       </c>
       <c r="M3">
-        <v>0.05118810641430516</v>
+        <v>0.02777313197611606</v>
       </c>
       <c r="N3">
-        <v>-4.921764143677771E-12</v>
+        <v>-2.382707091905265E-09</v>
       </c>
       <c r="O3">
-        <v>-4.052627095820563E-09</v>
+        <v>-1.32681674879451E-10</v>
       </c>
       <c r="P3">
-        <v>-3.776900032707095E-09</v>
+        <v>-4.928751391460109E-12</v>
       </c>
       <c r="Q3">
-        <v>3.838282156175737E-14</v>
+        <v>3.079350550368436E-05</v>
       </c>
       <c r="R3">
-        <v>0.04437258658449805</v>
+        <v>-1.322236412108823E-13</v>
       </c>
       <c r="S3">
-        <v>-0.04426798278895447</v>
+        <v>1.274363133230083E-13</v>
       </c>
       <c r="T3">
-        <v>-1.940551282898382E-12</v>
+        <v>4.843648916401782E-11</v>
       </c>
       <c r="U3">
-        <v>-2.499478146125128E-09</v>
+        <v>-9.577935446659948E-11</v>
       </c>
       <c r="V3">
-        <v>2.658709954120823E-09</v>
+        <v>-1.690333044964933E-10</v>
       </c>
       <c r="W3">
-        <v>3.008784717106548E-14</v>
+        <v>-0.04048002255397845</v>
       </c>
       <c r="X3">
-        <v>-0.06969174641419419</v>
+        <v>6.941456452862878E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.06781659948316791</v>
+        <v>7.837672088499307E-14</v>
       </c>
       <c r="Z3">
-        <v>-80.27880562926023</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-162.5102440701155</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>23.10948337003605</v>
       </c>
       <c r="AC3">
-        <v>-88.78811782674464</v>
+        <v>90.29697910588602</v>
       </c>
       <c r="AD3">
-        <v>-88.78811718444184</v>
+        <v>90.2969787508402</v>
       </c>
       <c r="AE3">
-        <v>-88.78811718440468</v>
+        <v>90.29697881872987</v>
       </c>
       <c r="AF3">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308594</v>
       </c>
       <c r="AG3">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8941587930599413</v>
+        <v>0.836327817831066</v>
       </c>
       <c r="AI3">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="AJ3">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.5226334983204279</v>
       </c>
       <c r="AM3">
-        <v>-145.2754860103992</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>147.9167939912031</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP3">
-        <v>-146.3032964867996</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>148.0769760730098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11645,130 +11645,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5336417767187523</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.365362558187217</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.438396203867713</v>
       </c>
       <c r="E4">
-        <v>0.004433020042242065</v>
+        <v>0.002405224061214947</v>
       </c>
       <c r="F4">
-        <v>0.004433020052641515</v>
+        <v>0.002405224333391021</v>
       </c>
       <c r="G4">
-        <v>0.004433020052640106</v>
+        <v>0.002405223783395805</v>
       </c>
       <c r="H4">
-        <v>6.161964468788037</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.31285419400903</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>28.15617409387971</v>
       </c>
       <c r="K4">
-        <v>0.05118810629422926</v>
+        <v>0.0277731351840763</v>
       </c>
       <c r="L4">
-        <v>0.05118810641431176</v>
+        <v>0.02777313832689488</v>
       </c>
       <c r="M4">
-        <v>0.05118810641429549</v>
+        <v>0.02777313197609716</v>
       </c>
       <c r="N4">
-        <v>-4.924466096938914E-12</v>
+        <v>-2.382706966725334E-09</v>
       </c>
       <c r="O4">
-        <v>-4.052634973374703E-09</v>
+        <v>-1.326745831237551E-10</v>
       </c>
       <c r="P4">
-        <v>-3.776890755946758E-09</v>
+        <v>-4.920638237985459E-12</v>
       </c>
       <c r="Q4">
-        <v>3.838282156178153E-14</v>
+        <v>3.079350551067053E-05</v>
       </c>
       <c r="R4">
-        <v>0.04437258658448958</v>
+        <v>-1.322236412110867E-13</v>
       </c>
       <c r="S4">
-        <v>-0.04426798278893382</v>
+        <v>1.274363133229486E-13</v>
       </c>
       <c r="T4">
-        <v>-1.939704140800824E-12</v>
+        <v>4.842276619627934E-11</v>
       </c>
       <c r="U4">
-        <v>-2.499506609696736E-09</v>
+        <v>-9.573533016623477E-11</v>
       </c>
       <c r="V4">
-        <v>2.658669504144666E-09</v>
+        <v>-1.69113946706513E-10</v>
       </c>
       <c r="W4">
-        <v>3.008784717105025E-14</v>
+        <v>-0.04048002255399222</v>
       </c>
       <c r="X4">
-        <v>-0.06969174641420903</v>
+        <v>6.941456452867733E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.06781659948316311</v>
+        <v>7.837672088489581E-14</v>
       </c>
       <c r="Z4">
-        <v>-80.27880562926023</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-162.5102440701155</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>23.10948337003605</v>
       </c>
       <c r="AC4">
-        <v>-88.78811782671306</v>
+        <v>90.29697910587615</v>
       </c>
       <c r="AD4">
-        <v>-88.78811718443137</v>
+        <v>90.29697875082024</v>
       </c>
       <c r="AE4">
-        <v>-88.78811718441507</v>
+        <v>90.29697881874962</v>
       </c>
       <c r="AF4">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308589</v>
       </c>
       <c r="AG4">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.8941587930599413</v>
+        <v>0.8363278178310662</v>
       </c>
       <c r="AI4">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="AJ4">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.5226334983205004</v>
       </c>
       <c r="AM4">
-        <v>-145.2754860103992</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>147.9167939912032</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP4">
-        <v>-146.3032964867996</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>148.0769760730098</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12145,130 +12145,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01359901718817787</v>
+        <v>0.007265317358306065</v>
       </c>
       <c r="C2">
-        <v>0.01359901719311509</v>
+        <v>0.007265318181969523</v>
       </c>
       <c r="D2">
-        <v>0.01359901719311754</v>
+        <v>0.007265316532006028</v>
       </c>
       <c r="E2">
-        <v>0.5846199791874934</v>
+        <v>0.004810448124427467</v>
       </c>
       <c r="F2">
-        <v>0.00886604010896133</v>
+        <v>3.090256703396253</v>
       </c>
       <c r="G2">
-        <v>0.008866040108965124</v>
+        <v>3.155873014208164</v>
       </c>
       <c r="H2">
-        <v>0.1570279246861769</v>
+        <v>0.08389265865132134</v>
       </c>
       <c r="I2">
-        <v>0.157027924743187</v>
+        <v>0.08389266816216774</v>
       </c>
       <c r="J2">
-        <v>0.1570279247432153</v>
+        <v>0.08389264911003037</v>
       </c>
       <c r="K2">
-        <v>6.750610047150655</v>
+        <v>0.05554627039121857</v>
       </c>
       <c r="L2">
-        <v>0.1023762128710969</v>
+        <v>35.68321079141744</v>
       </c>
       <c r="M2">
-        <v>0.1023762128711407</v>
+        <v>36.44088268562719</v>
       </c>
       <c r="N2">
-        <v>1.232190438825657E-13</v>
+        <v>0.0008430801221285248</v>
       </c>
       <c r="O2">
-        <v>0.1374665114469373</v>
+        <v>-7.951282592892586E-14</v>
       </c>
       <c r="P2">
-        <v>-0.1345127547705528</v>
+        <v>8.500210675133628E-14</v>
       </c>
       <c r="Q2">
-        <v>-5.586143717182451E-12</v>
+        <v>-6.158945624980521E-05</v>
       </c>
       <c r="R2">
-        <v>-0.08874517741560115</v>
+        <v>-1.352121944060203E-10</v>
       </c>
       <c r="S2">
-        <v>0.08853596151816689</v>
+        <v>2.969133435855659E-11</v>
       </c>
       <c r="T2">
-        <v>1.028219854269026E-13</v>
+        <v>-0.1229627807283842</v>
       </c>
       <c r="U2">
-        <v>-0.2150190914449636</v>
+        <v>4.967853633084755E-14</v>
       </c>
       <c r="V2">
-        <v>-0.2157847254316775</v>
+        <v>4.165475370633771E-14</v>
       </c>
       <c r="W2">
-        <v>-3.187798115015174E-12</v>
+        <v>0.08096004513974354</v>
       </c>
       <c r="X2">
-        <v>0.1393834902058716</v>
+        <v>-1.361305752859909E-10</v>
       </c>
       <c r="Y2">
-        <v>0.1356332016967295</v>
+        <v>-1.940425084799108E-10</v>
       </c>
       <c r="Z2">
-        <v>-80.27880562926023</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-162.5102440701155</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>23.10948337003605</v>
       </c>
       <c r="AC2">
-        <v>99.59262033998461</v>
+        <v>-89.70302262459739</v>
       </c>
       <c r="AD2">
-        <v>91.21188108505517</v>
+        <v>17.40455178455316</v>
       </c>
       <c r="AE2">
-        <v>91.21188108508646</v>
+        <v>-156.8100130283359</v>
       </c>
       <c r="AF2">
-        <v>0.9383262346624903</v>
+        <v>0.8462512019154312</v>
       </c>
       <c r="AG2">
-        <v>1.000000000000685</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9349090119114009</v>
+        <v>0.8462512019153683</v>
       </c>
       <c r="AI2">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="AJ2">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.06185191722406379</v>
       </c>
       <c r="AM2">
-        <v>-147.5695994122703</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>147.900719969754</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP2">
-        <v>-146.3032964867996</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>148.0769760730098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12276,130 +12276,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5336417767187513</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.365362558187219</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.438396203867715</v>
       </c>
       <c r="E3">
-        <v>0.004433020042241193</v>
+        <v>0.002405224061214129</v>
       </c>
       <c r="F3">
-        <v>0.004433020052641089</v>
+        <v>0.002405224333387743</v>
       </c>
       <c r="G3">
-        <v>0.004433020052640944</v>
+        <v>0.002405223783397441</v>
       </c>
       <c r="H3">
-        <v>6.161964468788026</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.31285419400905</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>28.15617409387974</v>
       </c>
       <c r="K3">
-        <v>0.05118810629421917</v>
+        <v>0.02777313518406685</v>
       </c>
       <c r="L3">
-        <v>0.05118810641430684</v>
+        <v>0.02777313832685703</v>
       </c>
       <c r="M3">
-        <v>0.05118810641430516</v>
+        <v>0.02777313197611606</v>
       </c>
       <c r="N3">
-        <v>-4.921764143677771E-12</v>
+        <v>-2.382707091905265E-09</v>
       </c>
       <c r="O3">
-        <v>-4.052627095820563E-09</v>
+        <v>-1.32681674879451E-10</v>
       </c>
       <c r="P3">
-        <v>-3.776900032707095E-09</v>
+        <v>-4.928751391460109E-12</v>
       </c>
       <c r="Q3">
-        <v>3.838282156175737E-14</v>
+        <v>3.079350550368436E-05</v>
       </c>
       <c r="R3">
-        <v>0.04437258658449805</v>
+        <v>-1.322236412108823E-13</v>
       </c>
       <c r="S3">
-        <v>-0.04426798278895447</v>
+        <v>1.274363133230083E-13</v>
       </c>
       <c r="T3">
-        <v>-1.940551282898382E-12</v>
+        <v>4.843648916401782E-11</v>
       </c>
       <c r="U3">
-        <v>-2.499478146125128E-09</v>
+        <v>-9.577935446659948E-11</v>
       </c>
       <c r="V3">
-        <v>2.658709954120823E-09</v>
+        <v>-1.690333044964933E-10</v>
       </c>
       <c r="W3">
-        <v>3.008784717106548E-14</v>
+        <v>-0.04048002255397845</v>
       </c>
       <c r="X3">
-        <v>-0.06969174641419419</v>
+        <v>6.941456452862878E-14</v>
       </c>
       <c r="Y3">
-        <v>-0.06781659948316791</v>
+        <v>7.837672088499307E-14</v>
       </c>
       <c r="Z3">
-        <v>-80.27880562926023</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-162.5102440701155</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>23.10948337003605</v>
       </c>
       <c r="AC3">
-        <v>-88.78811782674464</v>
+        <v>90.29697910588602</v>
       </c>
       <c r="AD3">
-        <v>-88.78811718444184</v>
+        <v>90.2969787508402</v>
       </c>
       <c r="AE3">
-        <v>-88.78811718440468</v>
+        <v>90.29697881872987</v>
       </c>
       <c r="AF3">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308594</v>
       </c>
       <c r="AG3">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8941587930599413</v>
+        <v>0.836327817831066</v>
       </c>
       <c r="AI3">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="AJ3">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.5226334983204279</v>
       </c>
       <c r="AM3">
-        <v>-145.2754860103992</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>147.9167939912031</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP3">
-        <v>-146.3032964867996</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>148.0769760730098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12407,130 +12407,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5336417767187523</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.365362558187217</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.438396203867713</v>
       </c>
       <c r="E4">
-        <v>0.004433020042242065</v>
+        <v>0.002405224061214947</v>
       </c>
       <c r="F4">
-        <v>0.004433020052641515</v>
+        <v>0.002405224333391021</v>
       </c>
       <c r="G4">
-        <v>0.004433020052640106</v>
+        <v>0.002405223783395805</v>
       </c>
       <c r="H4">
-        <v>6.161964468788037</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.31285419400903</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>28.15617409387971</v>
       </c>
       <c r="K4">
-        <v>0.05118810629422926</v>
+        <v>0.0277731351840763</v>
       </c>
       <c r="L4">
-        <v>0.05118810641431176</v>
+        <v>0.02777313832689488</v>
       </c>
       <c r="M4">
-        <v>0.05118810641429549</v>
+        <v>0.02777313197609716</v>
       </c>
       <c r="N4">
-        <v>-4.924466096938914E-12</v>
+        <v>-2.382706966725334E-09</v>
       </c>
       <c r="O4">
-        <v>-4.052634973374703E-09</v>
+        <v>-1.326745831237551E-10</v>
       </c>
       <c r="P4">
-        <v>-3.776890755946758E-09</v>
+        <v>-4.920638237985459E-12</v>
       </c>
       <c r="Q4">
-        <v>3.838282156178153E-14</v>
+        <v>3.079350551067053E-05</v>
       </c>
       <c r="R4">
-        <v>0.04437258658448958</v>
+        <v>-1.322236412110867E-13</v>
       </c>
       <c r="S4">
-        <v>-0.04426798278893382</v>
+        <v>1.274363133229486E-13</v>
       </c>
       <c r="T4">
-        <v>-1.939704140800824E-12</v>
+        <v>4.842276619627934E-11</v>
       </c>
       <c r="U4">
-        <v>-2.499506609696736E-09</v>
+        <v>-9.573533016623477E-11</v>
       </c>
       <c r="V4">
-        <v>2.658669504144666E-09</v>
+        <v>-1.69113946706513E-10</v>
       </c>
       <c r="W4">
-        <v>3.008784717105025E-14</v>
+        <v>-0.04048002255399222</v>
       </c>
       <c r="X4">
-        <v>-0.06969174641420903</v>
+        <v>6.941456452867733E-14</v>
       </c>
       <c r="Y4">
-        <v>-0.06781659948316311</v>
+        <v>7.837672088489581E-14</v>
       </c>
       <c r="Z4">
-        <v>-80.27880562926023</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-162.5102440701155</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>23.10948337003605</v>
       </c>
       <c r="AC4">
-        <v>-88.78811782671306</v>
+        <v>90.29697910587615</v>
       </c>
       <c r="AD4">
-        <v>-88.78811718443137</v>
+        <v>90.29697875082024</v>
       </c>
       <c r="AE4">
-        <v>-88.78811718441507</v>
+        <v>90.29697881874962</v>
       </c>
       <c r="AF4">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308589</v>
       </c>
       <c r="AG4">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.8941587930599413</v>
+        <v>0.8363278178310662</v>
       </c>
       <c r="AI4">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="AJ4">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.5226334983205004</v>
       </c>
       <c r="AM4">
-        <v>-145.2754860103992</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>147.9167939912032</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.3405644956728276</v>
       </c>
       <c r="AP4">
-        <v>-146.3032964867996</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>148.0769760730098</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12682,130 +12682,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01051152255559081</v>
+        <v>0.006313903096958721</v>
       </c>
       <c r="C2">
-        <v>0.01051152255940613</v>
+        <v>0.006313903296368257</v>
       </c>
       <c r="D2">
-        <v>0.0105115225594096</v>
+        <v>0.006313902895257122</v>
       </c>
       <c r="E2">
-        <v>0.4483700224033163</v>
+        <v>0.004147213117525373</v>
       </c>
       <c r="F2">
-        <v>0.006799744695363258</v>
+        <v>0.9465869878739963</v>
       </c>
       <c r="G2">
-        <v>0.006799744695366273</v>
+        <v>1.05513961673634</v>
       </c>
       <c r="H2">
-        <v>0.1213766075412635</v>
+        <v>0.0729066730533266</v>
       </c>
       <c r="I2">
-        <v>0.121376607585319</v>
+        <v>0.07290667535590958</v>
       </c>
       <c r="J2">
-        <v>0.1213766075853592</v>
+        <v>0.07290667072427716</v>
       </c>
       <c r="K2">
-        <v>5.177331062622264</v>
+        <v>0.04788789219580042</v>
       </c>
       <c r="L2">
-        <v>0.07851668860577414</v>
+        <v>10.93024504520898</v>
       </c>
       <c r="M2">
-        <v>0.07851668860580896</v>
+        <v>12.18370283510728</v>
       </c>
       <c r="N2">
-        <v>0.02470685518105017</v>
+        <v>-0.008277462980780267</v>
       </c>
       <c r="O2">
-        <v>0.09149072590444259</v>
+        <v>-0.04289738398745896</v>
       </c>
       <c r="P2">
-        <v>-0.1144327998947351</v>
+        <v>0.05181157462053072</v>
       </c>
       <c r="Q2">
-        <v>-0.9878753400046408</v>
+        <v>0.00465175353103812</v>
       </c>
       <c r="R2">
-        <v>-0.0606705672785994</v>
+        <v>-4.470067222289683</v>
       </c>
       <c r="S2">
-        <v>0.07317572583758258</v>
+        <v>-5.570142957659387</v>
       </c>
       <c r="T2">
-        <v>0.02507087828802883</v>
+        <v>-0.1019122978878985</v>
       </c>
       <c r="U2">
-        <v>-0.1623996908693466</v>
+        <v>0.01912521861614103</v>
       </c>
       <c r="V2">
-        <v>-0.1200636054428003</v>
+        <v>-0.01007968420660958</v>
       </c>
       <c r="W2">
-        <v>-0.9923189830651131</v>
+        <v>0.06652499121005219</v>
       </c>
       <c r="X2">
-        <v>0.101457811945234</v>
+        <v>-4.50600357978286</v>
       </c>
       <c r="Y2">
-        <v>0.0773791702076564</v>
+        <v>-5.535859581408235</v>
       </c>
       <c r="Z2">
-        <v>-71.29238990172766</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-150.1483073878182</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>44.13135103958994</v>
       </c>
       <c r="AC2">
-        <v>108.5790360675171</v>
+        <v>-84.11322662934801</v>
       </c>
       <c r="AD2">
-        <v>100.1982968125995</v>
+        <v>29.62230598404204</v>
       </c>
       <c r="AE2">
-        <v>100.198296812609</v>
+        <v>-135.6917818543439</v>
       </c>
       <c r="AF2">
-        <v>0.9466316679700786</v>
+        <v>0.9969372067204435</v>
       </c>
       <c r="AG2">
-        <v>1.000000000000384</v>
+        <v>0.784852101414068</v>
       </c>
       <c r="AH2">
-        <v>0.9563641300866161</v>
+        <v>0.8690725778910023</v>
       </c>
       <c r="AI2">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="AJ2">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="AK2">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="AL2">
-        <v>-32.96337052117936</v>
+        <v>2.089868393738011</v>
       </c>
       <c r="AM2">
-        <v>-138.986863103398</v>
+        <v>-107.2957348901595</v>
       </c>
       <c r="AN2">
-        <v>147.9931760528525</v>
+        <v>85.72422595375333</v>
       </c>
       <c r="AO2">
-        <v>-26.29238990179093</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP2">
-        <v>-138.9227804480093</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ2">
-        <v>146.7975611245488</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12813,130 +12813,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4109764844045102</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8628244192816512</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.9457031949629577</v>
       </c>
       <c r="E3">
-        <v>0.003399872338294959</v>
+        <v>0.002073606557901575</v>
       </c>
       <c r="F3">
-        <v>0.003399872346269923</v>
+        <v>0.002073606641338549</v>
       </c>
       <c r="G3">
-        <v>0.003399872346270892</v>
+        <v>0.002073606469600127</v>
       </c>
       <c r="H3">
-        <v>4.745547678031</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.963038214712878</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.92003988370706</v>
       </c>
       <c r="K3">
-        <v>0.03925834419449914</v>
+        <v>0.02394394608795695</v>
       </c>
       <c r="L3">
-        <v>0.03925834428658609</v>
+        <v>0.02394394705140414</v>
       </c>
       <c r="M3">
-        <v>0.03925834428659728</v>
+        <v>0.02394394506833965</v>
       </c>
       <c r="N3">
-        <v>-0.8445083533411871</v>
+        <v>-1.956955351373469E-09</v>
       </c>
       <c r="O3">
-        <v>-2.907506417241783E-09</v>
+        <v>-3.722329893122674</v>
       </c>
       <c r="P3">
-        <v>-2.233533354672806E-09</v>
+        <v>-4.47177266382322</v>
       </c>
       <c r="Q3">
-        <v>0.006314109934431514</v>
+        <v>-0.002325877769177251</v>
       </c>
       <c r="R3">
-        <v>0.03033528209455616</v>
+        <v>-0.01297747388767801</v>
       </c>
       <c r="S3">
-        <v>-0.03658786407213685</v>
+        <v>0.01532623814678579</v>
       </c>
       <c r="T3">
-        <v>-0.8445083542980704</v>
+        <v>1.481129021127018E-10</v>
       </c>
       <c r="U3">
-        <v>-1.765781988521945E-09</v>
+        <v>-3.722329893390749</v>
       </c>
       <c r="V3">
-        <v>2.154885650905754E-09</v>
+        <v>-4.471772665488997</v>
       </c>
       <c r="W3">
-        <v>0.00853593093564904</v>
+        <v>-0.03326249552096486</v>
       </c>
       <c r="X3">
-        <v>-0.05072890686775924</v>
+        <v>0.004990704726196235</v>
       </c>
       <c r="Y3">
-        <v>-0.03868958398269216</v>
+        <v>-0.001815450851564776</v>
       </c>
       <c r="Z3">
-        <v>-71.29238990172766</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-150.1483073878182</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>44.13135103958994</v>
       </c>
       <c r="AC3">
-        <v>-79.80170209920081</v>
+        <v>95.8867751011438</v>
       </c>
       <c r="AD3">
-        <v>-79.80170145690859</v>
+        <v>95.88677524770611</v>
       </c>
       <c r="AE3">
-        <v>-79.8017014568764</v>
+        <v>95.88677431232119</v>
       </c>
       <c r="AF3">
-        <v>0.9323327307442658</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="AG3">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778232</v>
       </c>
       <c r="AH3">
-        <v>0.9221519848974011</v>
+        <v>0.8677743776472471</v>
       </c>
       <c r="AI3">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="AJ3">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="AK3">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="AL3">
-        <v>-20.89818686211935</v>
+        <v>1.671451765044131</v>
       </c>
       <c r="AM3">
-        <v>-138.9749960592929</v>
+        <v>-103.3712639564099</v>
       </c>
       <c r="AN3">
-        <v>145.7805255433176</v>
+        <v>91.8732144411657</v>
       </c>
       <c r="AO3">
-        <v>-26.29238990179093</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP3">
-        <v>-138.9227804480093</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ3">
-        <v>146.7975611245488</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12944,130 +12944,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4109764844045113</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.862824419281651</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9457031949629575</v>
       </c>
       <c r="E4">
-        <v>0.003399872338294297</v>
+        <v>0.002073606557901659</v>
       </c>
       <c r="F4">
-        <v>0.003399872346270674</v>
+        <v>0.002073606641338591</v>
       </c>
       <c r="G4">
-        <v>0.003399872346270488</v>
+        <v>0.002073606469600127</v>
       </c>
       <c r="H4">
-        <v>4.745547678031013</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>9.963038214712874</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.92003988370706</v>
       </c>
       <c r="K4">
-        <v>0.0392583441944915</v>
+        <v>0.02394394608795793</v>
       </c>
       <c r="L4">
-        <v>0.03925834428659477</v>
+        <v>0.02394394705140463</v>
       </c>
       <c r="M4">
-        <v>0.03925834428659262</v>
+        <v>0.02394394506833965</v>
       </c>
       <c r="N4">
-        <v>-0.8445083533411931</v>
+        <v>-1.956948985114933E-09</v>
       </c>
       <c r="O4">
-        <v>-2.90751124657545E-09</v>
+        <v>-3.722329893122662</v>
       </c>
       <c r="P4">
-        <v>-2.23350858383024E-09</v>
+        <v>-4.471772663823227</v>
       </c>
       <c r="Q4">
-        <v>0.006314109934432678</v>
+        <v>-0.002325877769190437</v>
       </c>
       <c r="R4">
-        <v>0.03033528209455244</v>
+        <v>-0.01297747388767729</v>
       </c>
       <c r="S4">
-        <v>-0.03658786407213332</v>
+        <v>0.01532623814678579</v>
       </c>
       <c r="T4">
-        <v>-0.8445083542980681</v>
+        <v>1.481196510816397E-10</v>
       </c>
       <c r="U4">
-        <v>-1.765797814575588E-09</v>
+        <v>-3.722329893390756</v>
       </c>
       <c r="V4">
-        <v>2.154876545240585E-09</v>
+        <v>-4.471772665488992</v>
       </c>
       <c r="W4">
-        <v>0.008535930935645607</v>
+        <v>-0.03326249552096529</v>
       </c>
       <c r="X4">
-        <v>-0.05072890686777668</v>
+        <v>0.00499070472619889</v>
       </c>
       <c r="Y4">
-        <v>-0.03868958398268679</v>
+        <v>-0.001815450851564776</v>
       </c>
       <c r="Z4">
-        <v>-71.29238990172766</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-150.1483073878182</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>44.13135103958994</v>
       </c>
       <c r="AC4">
-        <v>-79.80170209918475</v>
+        <v>95.88677510116635</v>
       </c>
       <c r="AD4">
-        <v>-79.80170145689682</v>
+        <v>95.88677524771741</v>
       </c>
       <c r="AE4">
-        <v>-79.80170145687518</v>
+        <v>95.88677431232119</v>
       </c>
       <c r="AF4">
-        <v>0.9323327307442657</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="AG4">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778236</v>
       </c>
       <c r="AH4">
-        <v>0.9221519848974012</v>
+        <v>0.867774377647247</v>
       </c>
       <c r="AI4">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="AJ4">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="AK4">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="AL4">
-        <v>-20.89818686211941</v>
+        <v>1.671451765044135</v>
       </c>
       <c r="AM4">
-        <v>-138.9749960592929</v>
+        <v>-103.3712639564098</v>
       </c>
       <c r="AN4">
-        <v>145.7805255433176</v>
+        <v>91.87321444116566</v>
       </c>
       <c r="AO4">
-        <v>-26.29238990179093</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP4">
-        <v>-138.9227804480093</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ4">
-        <v>146.7975611245488</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
   </sheetData>
@@ -13219,130 +13219,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.01051152255559081</v>
+        <v>0.006313903096958721</v>
       </c>
       <c r="C2">
-        <v>0.01051152255940613</v>
+        <v>0.006313903296368257</v>
       </c>
       <c r="D2">
-        <v>0.0105115225594096</v>
+        <v>0.006313902895257122</v>
       </c>
       <c r="E2">
-        <v>0.4483700224033163</v>
+        <v>0.004147213117525373</v>
       </c>
       <c r="F2">
-        <v>0.006799744695363258</v>
+        <v>0.9465869878739963</v>
       </c>
       <c r="G2">
-        <v>0.006799744695366273</v>
+        <v>1.05513961673634</v>
       </c>
       <c r="H2">
-        <v>0.1213766075412635</v>
+        <v>0.0729066730533266</v>
       </c>
       <c r="I2">
-        <v>0.121376607585319</v>
+        <v>0.07290667535590958</v>
       </c>
       <c r="J2">
-        <v>0.1213766075853592</v>
+        <v>0.07290667072427716</v>
       </c>
       <c r="K2">
-        <v>5.177331062622264</v>
+        <v>0.04788789219580042</v>
       </c>
       <c r="L2">
-        <v>0.07851668860577414</v>
+        <v>10.93024504520898</v>
       </c>
       <c r="M2">
-        <v>0.07851668860580896</v>
+        <v>12.18370283510728</v>
       </c>
       <c r="N2">
-        <v>0.02470685518105017</v>
+        <v>-0.008277462980780267</v>
       </c>
       <c r="O2">
-        <v>0.09149072590444259</v>
+        <v>-0.04289738398745896</v>
       </c>
       <c r="P2">
-        <v>-0.1144327998947351</v>
+        <v>0.05181157462053072</v>
       </c>
       <c r="Q2">
-        <v>-0.9878753400046408</v>
+        <v>0.00465175353103812</v>
       </c>
       <c r="R2">
-        <v>-0.0606705672785994</v>
+        <v>-4.470067222289683</v>
       </c>
       <c r="S2">
-        <v>0.07317572583758258</v>
+        <v>-5.570142957659387</v>
       </c>
       <c r="T2">
-        <v>0.02507087828802883</v>
+        <v>-0.1019122978878985</v>
       </c>
       <c r="U2">
-        <v>-0.1623996908693466</v>
+        <v>0.01912521861614103</v>
       </c>
       <c r="V2">
-        <v>-0.1200636054428003</v>
+        <v>-0.01007968420660958</v>
       </c>
       <c r="W2">
-        <v>-0.9923189830651131</v>
+        <v>0.06652499121005219</v>
       </c>
       <c r="X2">
-        <v>0.101457811945234</v>
+        <v>-4.50600357978286</v>
       </c>
       <c r="Y2">
-        <v>0.0773791702076564</v>
+        <v>-5.535859581408235</v>
       </c>
       <c r="Z2">
-        <v>-71.29238990172766</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-150.1483073878182</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>44.13135103958994</v>
       </c>
       <c r="AC2">
-        <v>108.5790360675171</v>
+        <v>-84.11322662934801</v>
       </c>
       <c r="AD2">
-        <v>100.1982968125995</v>
+        <v>29.62230598404204</v>
       </c>
       <c r="AE2">
-        <v>100.198296812609</v>
+        <v>-135.6917818543439</v>
       </c>
       <c r="AF2">
-        <v>0.9466316679700786</v>
+        <v>0.9969372067204435</v>
       </c>
       <c r="AG2">
-        <v>1.000000000000384</v>
+        <v>0.784852101414068</v>
       </c>
       <c r="AH2">
-        <v>0.9563641300866161</v>
+        <v>0.8690725778910023</v>
       </c>
       <c r="AI2">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="AJ2">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="AK2">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="AL2">
-        <v>-32.96337052117936</v>
+        <v>2.089868393738011</v>
       </c>
       <c r="AM2">
-        <v>-138.986863103398</v>
+        <v>-107.2957348901595</v>
       </c>
       <c r="AN2">
-        <v>147.9931760528525</v>
+        <v>85.72422595375333</v>
       </c>
       <c r="AO2">
-        <v>-26.29238990179093</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP2">
-        <v>-138.9227804480093</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ2">
-        <v>146.7975611245488</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13350,130 +13350,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4109764844045102</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8628244192816512</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.9457031949629577</v>
       </c>
       <c r="E3">
-        <v>0.003399872338294959</v>
+        <v>0.002073606557901575</v>
       </c>
       <c r="F3">
-        <v>0.003399872346269923</v>
+        <v>0.002073606641338549</v>
       </c>
       <c r="G3">
-        <v>0.003399872346270892</v>
+        <v>0.002073606469600127</v>
       </c>
       <c r="H3">
-        <v>4.745547678031</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.963038214712878</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.92003988370706</v>
       </c>
       <c r="K3">
-        <v>0.03925834419449914</v>
+        <v>0.02394394608795695</v>
       </c>
       <c r="L3">
-        <v>0.03925834428658609</v>
+        <v>0.02394394705140414</v>
       </c>
       <c r="M3">
-        <v>0.03925834428659728</v>
+        <v>0.02394394506833965</v>
       </c>
       <c r="N3">
-        <v>-0.8445083533411871</v>
+        <v>-1.956955351373469E-09</v>
       </c>
       <c r="O3">
-        <v>-2.907506417241783E-09</v>
+        <v>-3.722329893122674</v>
       </c>
       <c r="P3">
-        <v>-2.233533354672806E-09</v>
+        <v>-4.47177266382322</v>
       </c>
       <c r="Q3">
-        <v>0.006314109934431514</v>
+        <v>-0.002325877769177251</v>
       </c>
       <c r="R3">
-        <v>0.03033528209455616</v>
+        <v>-0.01297747388767801</v>
       </c>
       <c r="S3">
-        <v>-0.03658786407213685</v>
+        <v>0.01532623814678579</v>
       </c>
       <c r="T3">
-        <v>-0.8445083542980704</v>
+        <v>1.481129021127018E-10</v>
       </c>
       <c r="U3">
-        <v>-1.765781988521945E-09</v>
+        <v>-3.722329893390749</v>
       </c>
       <c r="V3">
-        <v>2.154885650905754E-09</v>
+        <v>-4.471772665488997</v>
       </c>
       <c r="W3">
-        <v>0.00853593093564904</v>
+        <v>-0.03326249552096486</v>
       </c>
       <c r="X3">
-        <v>-0.05072890686775924</v>
+        <v>0.004990704726196235</v>
       </c>
       <c r="Y3">
-        <v>-0.03868958398269216</v>
+        <v>-0.001815450851564776</v>
       </c>
       <c r="Z3">
-        <v>-71.29238990172766</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-150.1483073878182</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>44.13135103958994</v>
       </c>
       <c r="AC3">
-        <v>-79.80170209920081</v>
+        <v>95.8867751011438</v>
       </c>
       <c r="AD3">
-        <v>-79.80170145690859</v>
+        <v>95.88677524770611</v>
       </c>
       <c r="AE3">
-        <v>-79.8017014568764</v>
+        <v>95.88677431232119</v>
       </c>
       <c r="AF3">
-        <v>0.9323327307442658</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="AG3">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778232</v>
       </c>
       <c r="AH3">
-        <v>0.9221519848974011</v>
+        <v>0.8677743776472471</v>
       </c>
       <c r="AI3">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="AJ3">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="AK3">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="AL3">
-        <v>-20.89818686211935</v>
+        <v>1.671451765044131</v>
       </c>
       <c r="AM3">
-        <v>-138.9749960592929</v>
+        <v>-103.3712639564099</v>
       </c>
       <c r="AN3">
-        <v>145.7805255433176</v>
+        <v>91.8732144411657</v>
       </c>
       <c r="AO3">
-        <v>-26.29238990179093</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP3">
-        <v>-138.9227804480093</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ3">
-        <v>146.7975611245488</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13481,130 +13481,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4109764844045113</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.862824419281651</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9457031949629575</v>
       </c>
       <c r="E4">
-        <v>0.003399872338294297</v>
+        <v>0.002073606557901659</v>
       </c>
       <c r="F4">
-        <v>0.003399872346270674</v>
+        <v>0.002073606641338591</v>
       </c>
       <c r="G4">
-        <v>0.003399872346270488</v>
+        <v>0.002073606469600127</v>
       </c>
       <c r="H4">
-        <v>4.745547678031013</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>9.963038214712874</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.92003988370706</v>
       </c>
       <c r="K4">
-        <v>0.0392583441944915</v>
+        <v>0.02394394608795793</v>
       </c>
       <c r="L4">
-        <v>0.03925834428659477</v>
+        <v>0.02394394705140463</v>
       </c>
       <c r="M4">
-        <v>0.03925834428659262</v>
+        <v>0.02394394506833965</v>
       </c>
       <c r="N4">
-        <v>-0.8445083533411931</v>
+        <v>-1.956948985114933E-09</v>
       </c>
       <c r="O4">
-        <v>-2.90751124657545E-09</v>
+        <v>-3.722329893122662</v>
       </c>
       <c r="P4">
-        <v>-2.23350858383024E-09</v>
+        <v>-4.471772663823227</v>
       </c>
       <c r="Q4">
-        <v>0.006314109934432678</v>
+        <v>-0.002325877769190437</v>
       </c>
       <c r="R4">
-        <v>0.03033528209455244</v>
+        <v>-0.01297747388767729</v>
       </c>
       <c r="S4">
-        <v>-0.03658786407213332</v>
+        <v>0.01532623814678579</v>
       </c>
       <c r="T4">
-        <v>-0.8445083542980681</v>
+        <v>1.481196510816397E-10</v>
       </c>
       <c r="U4">
-        <v>-1.765797814575588E-09</v>
+        <v>-3.722329893390756</v>
       </c>
       <c r="V4">
-        <v>2.154876545240585E-09</v>
+        <v>-4.471772665488992</v>
       </c>
       <c r="W4">
-        <v>0.008535930935645607</v>
+        <v>-0.03326249552096529</v>
       </c>
       <c r="X4">
-        <v>-0.05072890686777668</v>
+        <v>0.00499070472619889</v>
       </c>
       <c r="Y4">
-        <v>-0.03868958398268679</v>
+        <v>-0.001815450851564776</v>
       </c>
       <c r="Z4">
-        <v>-71.29238990172766</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-150.1483073878182</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>44.13135103958994</v>
       </c>
       <c r="AC4">
-        <v>-79.80170209918475</v>
+        <v>95.88677510116635</v>
       </c>
       <c r="AD4">
-        <v>-79.80170145689682</v>
+        <v>95.88677524771741</v>
       </c>
       <c r="AE4">
-        <v>-79.80170145687518</v>
+        <v>95.88677431232119</v>
       </c>
       <c r="AF4">
-        <v>0.9323327307442657</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="AG4">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778236</v>
       </c>
       <c r="AH4">
-        <v>0.9221519848974012</v>
+        <v>0.867774377647247</v>
       </c>
       <c r="AI4">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="AJ4">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="AK4">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="AL4">
-        <v>-20.89818686211941</v>
+        <v>1.671451765044135</v>
       </c>
       <c r="AM4">
-        <v>-138.9749960592929</v>
+        <v>-103.3712639564098</v>
       </c>
       <c r="AN4">
-        <v>145.7805255433176</v>
+        <v>91.87321444116566</v>
       </c>
       <c r="AO4">
-        <v>-26.29238990179093</v>
+        <v>1.88688223548469</v>
       </c>
       <c r="AP4">
-        <v>-138.9227804480093</v>
+        <v>-105.1483073878867</v>
       </c>
       <c r="AQ4">
-        <v>146.7975611245488</v>
+        <v>89.13135103973146</v>
       </c>
     </row>
   </sheetData>
